--- a/FORMAT AKUN BUG.xlsx
+++ b/FORMAT AKUN BUG.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhgi\OneDrive - Telkom University\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhgi\OneDrive\Documents\[6] Config\AKUN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A69183-82BF-4CFF-92A1-E9C4A2B06FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3209B-C48D-40A1-951B-1615E74DE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="280">
   <si>
     <t>r.email1.vidio.com</t>
   </si>
@@ -864,13 +865,25 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>104.17.159.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quiz.vidio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support.vidio.com </t>
+  </si>
+  <si>
+    <t>104.22.4.240</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,16 +905,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -909,11 +948,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -929,11 +1025,255 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
+          <xfpb:DXFComplement i="0"/>
+        </ext>
+      </extLst>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1089,15 +1429,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}" name="Table13" displayName="Table13" ref="A1:D153" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}" name="Table13" displayName="Table13" ref="A1:D153" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D153" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
     <sortCondition descending="1" ref="D1:D153"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE15E59B-281A-4A25-9A81-7524375CF090}" name="SUB DOMAIN X" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{36EC843D-8E5B-4B48-8AEB-FD570676056D}" name="HOST X" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{554A2BE2-9691-457B-8875-304756921160}" name="FORMAT" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{AE15E59B-281A-4A25-9A81-7524375CF090}" name="SUB DOMAIN X" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{36EC843D-8E5B-4B48-8AEB-FD570676056D}" name="HOST X" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{554A2BE2-9691-457B-8875-304756921160}" name="FORMAT" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "  type: trojan",
@@ -1114,7 +1454,36 @@
 "  udp: true"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{358BB907-0FC0-4665-AA0C-2C4F2C195190}" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{358BB907-0FC0-4665-AA0C-2C4F2C195190}" name="STATUS" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:D10" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{849FBBC5-66D6-429F-B0D4-E180D61C0509}" name="SUB DOMAIN X" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{103867F1-2938-46CA-976E-C70D20BE405C}" name="HOST X" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E2D76F45-9A42-4146-B049-C234D70F47A0}" name="FORMAT" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B2),
+"  port: 443",
+"  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4",
+"  skip-cert-verify: true",
+"  sni: sgdo.ordervip.cloud",
+"  network: ws",
+"  ws-opts:",
+"    path: /trojan-ws",
+"    headers:",
+"      Host: sgdo.ordervip.cloud",
+"  udp: true"
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DF9DD8BE-0C1D-4B4E-AA7E-374C34C84DF2}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1439,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC9CBF1-1B5E-438E-80D4-40D297E130F8}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,43 +1978,43 @@
     </row>
     <row r="5" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A5 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B5),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (quiz.staging.vidio.com)
+  type: trojan
+  server: 104.20.9.155
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D5" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A5 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B5),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
-        <v>- name: XL VIDIO BUG (r.email2.vidio.com)
-  type: trojan
-  server: 1.179.112.197
-  port: 443
-  password: 594d1919-99cd-4002-aec3-0c07180b6c46
-  skip-cert-verify: true
-  sni: vip-7.indoxray.top
-  network: ws
-  ws-opts:
-    path: /websocket-trojan
-    headers:
-      Host: vip-7.indoxray.top
-  udp: true</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1654,10 +2023,10 @@
     </row>
     <row r="6" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1675,9 +2044,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (r.email1.vidio.com)
-  type: trojan
-  server: 1.179.112.195
+        <v>- name: XL VIDIO BUG (quiz.int.vidio.com)
+  type: trojan
+  server: 104.22.5.240
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1690,7 +2059,7 @@
   udp: true</v>
       </c>
       <c r="D6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1699,10 +2068,10 @@
     </row>
     <row r="7" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1720,9 +2089,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (r.email3.vidio.com)
-  type: trojan
-  server: 1.179.120.3
+        <v>- name: XL VIDIO BUG (support.vidio.com)
+  type: trojan
+  server: 172.66.0.145
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1735,7 +2104,7 @@
   udp: true</v>
       </c>
       <c r="D7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1744,10 +2113,10 @@
     </row>
     <row r="8" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1765,9 +2134,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tv.alpha.vidio.com)
-  type: trojan
-  server: 2.18.121.18
+        <v>- name: XL VIDIO BUG (quiz.vidio.com)
+  type: trojan
+  server: 172.67.5.14
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1780,7 +2149,7 @@
   udp: true</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1789,10 +2158,10 @@
     </row>
     <row r="9" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1810,9 +2179,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (www-dsa.staging.vidio.com)
-  type: trojan
-  server: 2.18.121.19
+        <v>- name: XL VIDIO BUG (r.email2.vidio.com)
+  type: trojan
+  server: 1.179.112.197
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1834,10 +2203,10 @@
     </row>
     <row r="10" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1855,9 +2224,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tv.staging.vidio.com)
-  type: trojan
-  server: 2.18.121.19
+        <v>- name: XL VIDIO BUG (r.email1.vidio.com)
+  type: trojan
+  server: 1.179.112.195
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1879,10 +2248,10 @@
     </row>
     <row r="11" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1900,9 +2269,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (stickers.vidio.com)
-  type: trojan
-  server: 2.18.188.68
+        <v>- name: XL VIDIO BUG (r.email3.vidio.com)
+  type: trojan
+  server: 1.179.120.3
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1924,10 +2293,10 @@
     </row>
     <row r="12" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1945,9 +2314,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (m.dev.vidio.com)
-  type: trojan
-  server: 10.252.38.18
+        <v>- name: XL VIDIO BUG (tv.alpha.vidio.com)
+  type: trojan
+  server: 2.18.121.18
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -1969,10 +2338,10 @@
     </row>
     <row r="13" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -1990,9 +2359,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (api.dev.vidio.com)
-  type: trojan
-  server: 10.252.38.18
+        <v>- name: XL VIDIO BUG (www-dsa.staging.vidio.com)
+  type: trojan
+  server: 2.18.121.19
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2014,10 +2383,10 @@
     </row>
     <row r="14" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2035,9 +2404,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (dev.vidio.com)
-  type: trojan
-  server: 10.252.38.18
+        <v>- name: XL VIDIO BUG (tv.staging.vidio.com)
+  type: trojan
+  server: 2.18.121.19
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2059,10 +2428,10 @@
     </row>
     <row r="15" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2080,9 +2449,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (www.dev.vidio.com)
-  type: trojan
-  server: 10.252.38.18
+        <v>- name: XL VIDIO BUG (stickers.vidio.com)
+  type: trojan
+  server: 2.18.188.68
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2102,12 +2471,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2125,9 +2494,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (app-log-analyzer-api.staging.vidio.com)
-  type: trojan
-  server: 10.252.88.130
+        <v>- name: XL VIDIO BUG (m.dev.vidio.com)
+  type: trojan
+  server: 10.252.38.18
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2149,10 +2518,10 @@
     </row>
     <row r="17" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2170,9 +2539,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (api.vidio.com)
-  type: trojan
-  server: 23.50.131.22
+        <v>- name: XL VIDIO BUG (api.dev.vidio.com)
+  type: trojan
+  server: 10.252.38.18
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2194,10 +2563,10 @@
     </row>
     <row r="18" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2215,9 +2584,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gandiwa.staging.vidio.com)
-  type: trojan
-  server: 23.55.236.67
+        <v>- name: XL VIDIO BUG (dev.vidio.com)
+  type: trojan
+  server: 10.252.38.18
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2239,10 +2608,10 @@
     </row>
     <row r="19" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2260,9 +2629,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gandiwa.vidio.com)
-  type: trojan
-  server: 23.55.236.77
+        <v>- name: XL VIDIO BUG (www.dev.vidio.com)
+  type: trojan
+  server: 10.252.38.18
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2282,12 +2651,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2305,9 +2674,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (www.vidio.com)
-  type: trojan
-  server: 23.216.77.76
+        <v>- name: XL VIDIO BUG (app-log-analyzer-api.staging.vidio.com)
+  type: trojan
+  server: 10.252.88.130
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2329,10 +2698,10 @@
     </row>
     <row r="21" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2350,9 +2719,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gandiwa-akamai.staging.vidio.com)
-  type: trojan
-  server: 34.8.8.6
+        <v>- name: XL VIDIO BUG (api.vidio.com)
+  type: trojan
+  server: 23.50.131.22
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2374,10 +2743,10 @@
     </row>
     <row r="22" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2395,9 +2764,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (license.staging.vidio.com)
-  type: trojan
-  server: 34.36.103.2
+        <v>- name: XL VIDIO BUG (gandiwa.staging.vidio.com)
+  type: trojan
+  server: 23.55.236.67
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2419,10 +2788,10 @@
     </row>
     <row r="23" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2440,9 +2809,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (link.promo.vidio.com)
-  type: trojan
-  server: 34.36.107.183
+        <v>- name: XL VIDIO BUG (gandiwa.vidio.com)
+  type: trojan
+  server: 23.55.236.77
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2464,10 +2833,10 @@
     </row>
     <row r="24" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2485,9 +2854,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ongi9angbeef5iw8-tv-dsa.vidio.com)
-  type: trojan
-  server: 34.36.193.7
+        <v>- name: XL VIDIO BUG (www.vidio.com)
+  type: trojan
+  server: 23.216.77.76
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2509,10 +2878,10 @@
     </row>
     <row r="25" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2530,9 +2899,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (vidio-media-interopt.int.vidio.com)
-  type: trojan
-  server: 34.36.229.42
+        <v>- name: XL VIDIO BUG (gandiwa-akamai.staging.vidio.com)
+  type: trojan
+  server: 34.8.8.6
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2554,10 +2923,10 @@
     </row>
     <row r="26" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2575,9 +2944,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (next.staging.vidio.com)
-  type: trojan
-  server: 34.36.255.56
+        <v>- name: XL VIDIO BUG (license.staging.vidio.com)
+  type: trojan
+  server: 34.36.103.2
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2599,10 +2968,10 @@
     </row>
     <row r="27" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2620,9 +2989,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (iso.vidio.com)
-  type: trojan
-  server: 34.49.22.44
+        <v>- name: XL VIDIO BUG (link.promo.vidio.com)
+  type: trojan
+  server: 34.36.107.183
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2642,12 +3011,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2665,9 +3034,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ets-subtitle-generator-api.staging.vidio.com)
-  type: trojan
-  server: 34.49.62.158
+        <v>- name: XL VIDIO BUG (ongi9angbeef5iw8-tv-dsa.vidio.com)
+  type: trojan
+  server: 34.36.193.7
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2689,10 +3058,10 @@
     </row>
     <row r="29" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2710,9 +3079,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (next-akamai.staging.vidio.com)
-  type: trojan
-  server: 34.49.98.65
+        <v>- name: XL VIDIO BUG (vidio-media-interopt.int.vidio.com)
+  type: trojan
+  server: 34.36.229.42
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2734,10 +3103,10 @@
     </row>
     <row r="30" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2755,9 +3124,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ets-dashboard.staging.vidio.com)
-  type: trojan
-  server: 34.49.106.218
+        <v>- name: XL VIDIO BUG (next.staging.vidio.com)
+  type: trojan
+  server: 34.36.255.56
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2779,10 +3148,10 @@
     </row>
     <row r="31" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2800,9 +3169,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (iso.staging.vidio.com)
-  type: trojan
-  server: 34.49.200.223
+        <v>- name: XL VIDIO BUG (iso.vidio.com)
+  type: trojan
+  server: 34.49.22.44
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2822,12 +3191,12 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2845,9 +3214,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (indosat.vidio.com)
-  type: trojan
-  server: 34.87.37.125
+        <v>- name: XL VIDIO BUG (ets-subtitle-generator-api.staging.vidio.com)
+  type: trojan
+  server: 34.49.62.158
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2869,10 +3238,10 @@
     </row>
     <row r="33" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2890,9 +3259,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (media.origin.dev.vidio.com)
-  type: trojan
-  server: 34.95.72.198
+        <v>- name: XL VIDIO BUG (next-akamai.staging.vidio.com)
+  type: trojan
+  server: 34.49.98.65
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2914,10 +3283,10 @@
     </row>
     <row r="34" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2935,9 +3304,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (cdn-a.origin.dev.vidio.com)
-  type: trojan
-  server: 34.95.72.198
+        <v>- name: XL VIDIO BUG (ets-dashboard.staging.vidio.com)
+  type: trojan
+  server: 34.49.106.218
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -2959,10 +3328,10 @@
     </row>
     <row r="35" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -2980,9 +3349,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (static-quiz.origin.int.vidio.com)
-  type: trojan
-  server: 34.95.85.215
+        <v>- name: XL VIDIO BUG (iso.staging.vidio.com)
+  type: trojan
+  server: 34.49.200.223
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3004,10 +3373,10 @@
     </row>
     <row r="36" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3025,9 +3394,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (dashboard-quiz.int.vidio.com)
-  type: trojan
-  server: 34.95.93.223
+        <v>- name: XL VIDIO BUG (indosat.vidio.com)
+  type: trojan
+  server: 34.87.37.125
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3049,10 +3418,10 @@
     </row>
     <row r="37" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3070,9 +3439,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (demo-etslive.int.vidio.com)
-  type: trojan
-  server: 34.95.101.136
+        <v>- name: XL VIDIO BUG (media.origin.dev.vidio.com)
+  type: trojan
+  server: 34.95.72.198
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3094,10 +3463,10 @@
     </row>
     <row r="38" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3115,9 +3484,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (airflow.vidio.com)
-  type: trojan
-  server: 34.95.108.145
+        <v>- name: XL VIDIO BUG (cdn-a.origin.dev.vidio.com)
+  type: trojan
+  server: 34.95.72.198
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3139,10 +3508,10 @@
     </row>
     <row r="39" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3160,9 +3529,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (static-origin.dev.vidio.com)
-  type: trojan
-  server: 34.96.79.191
+        <v>- name: XL VIDIO BUG (static-quiz.origin.int.vidio.com)
+  type: trojan
+  server: 34.95.85.215
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3184,10 +3553,10 @@
     </row>
     <row r="40" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3205,9 +3574,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (hydra.staging.vidio.com)
-  type: trojan
-  server: 34.96.108.148
+        <v>- name: XL VIDIO BUG (dashboard-quiz.int.vidio.com)
+  type: trojan
+  server: 34.95.93.223
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3229,10 +3598,10 @@
     </row>
     <row r="41" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3250,9 +3619,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (static03.staging.vidio.com)
-  type: trojan
-  server: 34.98.97.95
+        <v>- name: XL VIDIO BUG (demo-etslive.int.vidio.com)
+  type: trojan
+  server: 34.95.101.136
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3274,10 +3643,10 @@
     </row>
     <row r="42" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3295,9 +3664,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (dboreja4fu.int.vidio.com)
-  type: trojan
-  server: 34.98.125.177
+        <v>- name: XL VIDIO BUG (airflow.vidio.com)
+  type: trojan
+  server: 34.95.108.145
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3319,10 +3688,10 @@
     </row>
     <row r="43" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3340,9 +3709,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (aequ1kie7b.vidio.com)
-  type: trojan
-  server: 34.102.158.190
+        <v>- name: XL VIDIO BUG (static-origin.dev.vidio.com)
+  type: trojan
+  server: 34.96.79.191
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3364,10 +3733,10 @@
     </row>
     <row r="44" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3385,9 +3754,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tv-gke.staging.vidio.com)
-  type: trojan
-  server: 34.102.199.9
+        <v>- name: XL VIDIO BUG (hydra.staging.vidio.com)
+  type: trojan
+  server: 34.96.108.148
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3407,12 +3776,12 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3430,9 +3799,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (lasjk21bda21-tv-dsa.staging.vidio.com)
-  type: trojan
-  server: 34.102.199.9
+        <v>- name: XL VIDIO BUG (static03.staging.vidio.com)
+  type: trojan
+  server: 34.98.97.95
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3454,10 +3823,10 @@
     </row>
     <row r="46" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3475,9 +3844,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (thumbor-gke.dev.vidio.com)
-  type: trojan
-  server: 34.102.200.171
+        <v>- name: XL VIDIO BUG (dboreja4fu.int.vidio.com)
+  type: trojan
+  server: 34.98.125.177
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3499,10 +3868,10 @@
     </row>
     <row r="47" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C47" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3520,9 +3889,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (peehain1ee.vidio.com)
-  type: trojan
-  server: 34.107.135.0
+        <v>- name: XL VIDIO BUG (aequ1kie7b.vidio.com)
+  type: trojan
+  server: 34.102.158.190
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3544,10 +3913,10 @@
     </row>
     <row r="48" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C48" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3565,9 +3934,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ckp66utx.vidio.com)
-  type: trojan
-  server: 34.107.146.29
+        <v>- name: XL VIDIO BUG (tv-gke.staging.vidio.com)
+  type: trojan
+  server: 34.102.199.9
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3587,12 +3956,12 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C49" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3610,9 +3979,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (api-ns.int.vidio.com)
-  type: trojan
-  server: 34.107.179.150
+        <v>- name: XL VIDIO BUG (lasjk21bda21-tv-dsa.staging.vidio.com)
+  type: trojan
+  server: 34.102.199.9
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3634,10 +4003,10 @@
     </row>
     <row r="50" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C50" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3655,9 +4024,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tst-aqcdqr1234.staging.vidio.com)
-  type: trojan
-  server: 34.107.198.29
+        <v>- name: XL VIDIO BUG (thumbor-gke.dev.vidio.com)
+  type: trojan
+  server: 34.102.200.171
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3679,10 +4048,10 @@
     </row>
     <row r="51" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C51" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3700,9 +4069,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gmvpwepkj3.int.vidio.com)
-  type: trojan
-  server: 34.107.223.52
+        <v>- name: XL VIDIO BUG (peehain1ee.vidio.com)
+  type: trojan
+  server: 34.107.135.0
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3724,10 +4093,10 @@
     </row>
     <row r="52" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C52" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3745,9 +4114,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (license.vidio.com)
-  type: trojan
-  server: 34.110.165.83
+        <v>- name: XL VIDIO BUG (ckp66utx.vidio.com)
+  type: trojan
+  server: 34.107.146.29
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3769,10 +4138,10 @@
     </row>
     <row r="53" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C53" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3790,9 +4159,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (staging-plenty.vidio.com)
-  type: trojan
-  server: 34.110.192.133
+        <v>- name: XL VIDIO BUG (api-ns.int.vidio.com)
+  type: trojan
+  server: 34.107.179.150
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3814,10 +4183,10 @@
     </row>
     <row r="54" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="C54" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3835,9 +4204,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (api-ns.vidio.com)
-  type: trojan
-  server: 34.111.60.67
+        <v>- name: XL VIDIO BUG (tst-aqcdqr1234.staging.vidio.com)
+  type: trojan
+  server: 34.107.198.29
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3859,10 +4228,10 @@
     </row>
     <row r="55" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C55" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3880,9 +4249,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (blog.staging.vidio.com)
-  type: trojan
-  server: 34.111.113.121
+        <v>- name: XL VIDIO BUG (gmvpwepkj3.int.vidio.com)
+  type: trojan
+  server: 34.107.223.52
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3904,10 +4273,10 @@
     </row>
     <row r="56" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3925,9 +4294,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (plenty.vidio.com)
-  type: trojan
-  server: 34.111.228.151
+        <v>- name: XL VIDIO BUG (license.vidio.com)
+  type: trojan
+  server: 34.110.165.83
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3949,10 +4318,10 @@
     </row>
     <row r="57" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C57" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -3970,9 +4339,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (blog.vidio.com)
-  type: trojan
-  server: 34.111.253.69
+        <v>- name: XL VIDIO BUG (staging-plenty.vidio.com)
+  type: trojan
+  server: 34.110.192.133
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -3994,10 +4363,10 @@
     </row>
     <row r="58" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4015,9 +4384,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (w3hh46zt.staging.vidio.com)
-  type: trojan
-  server: 34.117.25.214
+        <v>- name: XL VIDIO BUG (api-ns.vidio.com)
+  type: trojan
+  server: 34.111.60.67
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4039,10 +4408,10 @@
     </row>
     <row r="59" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="C59" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4060,9 +4429,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (etslive-server.vidio.com)
-  type: trojan
-  server: 34.117.26.33
+        <v>- name: XL VIDIO BUG (blog.staging.vidio.com)
+  type: trojan
+  server: 34.111.113.121
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4084,10 +4453,10 @@
     </row>
     <row r="60" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C60" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4105,9 +4474,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (hermes.staging.vidio.com)
-  type: trojan
-  server: 34.117.150.41
+        <v>- name: XL VIDIO BUG (plenty.vidio.com)
+  type: trojan
+  server: 34.111.228.151
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4129,10 +4498,10 @@
     </row>
     <row r="61" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4150,9 +4519,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (jjndi0k9m2.int.vidio.com)
-  type: trojan
-  server: 34.117.162.195
+        <v>- name: XL VIDIO BUG (blog.vidio.com)
+  type: trojan
+  server: 34.111.253.69
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4174,10 +4543,10 @@
     </row>
     <row r="62" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4195,9 +4564,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (telkomsel.vidio.com)
-  type: trojan
-  server: 34.117.180.47
+        <v>- name: XL VIDIO BUG (w3hh46zt.staging.vidio.com)
+  type: trojan
+  server: 34.117.25.214
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4219,10 +4588,10 @@
     </row>
     <row r="63" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4240,9 +4609,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (thumbor-gke.staging.vidio.com)
-  type: trojan
-  server: 34.117.204.147
+        <v>- name: XL VIDIO BUG (etslive-server.vidio.com)
+  type: trojan
+  server: 34.117.26.33
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4264,10 +4633,10 @@
     </row>
     <row r="64" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C64" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4285,9 +4654,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (8hjrjnvoc3.vidio.com)
-  type: trojan
-  server: 34.117.205.16
+        <v>- name: XL VIDIO BUG (hermes.staging.vidio.com)
+  type: trojan
+  server: 34.117.150.41
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4309,10 +4678,10 @@
     </row>
     <row r="65" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C65" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4330,9 +4699,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ovm.staging.vidio.com)
-  type: trojan
-  server: 34.117.233.20
+        <v>- name: XL VIDIO BUG (jjndi0k9m2.int.vidio.com)
+  type: trojan
+  server: 34.117.162.195
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4354,10 +4723,10 @@
     </row>
     <row r="66" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C66" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4375,9 +4744,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (hermes.vidio.com)
-  type: trojan
-  server: 34.117.241.252
+        <v>- name: XL VIDIO BUG (telkomsel.vidio.com)
+  type: trojan
+  server: 34.117.180.47
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4399,10 +4768,10 @@
     </row>
     <row r="67" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="C67" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4420,9 +4789,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (scm-iso.vidio.com)
-  type: trojan
-  server: 34.120.17.79
+        <v>- name: XL VIDIO BUG (thumbor-gke.staging.vidio.com)
+  type: trojan
+  server: 34.117.204.147
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4444,10 +4813,10 @@
     </row>
     <row r="68" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="C68" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4465,9 +4834,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (live.vidio.com)
-  type: trojan
-  server: 34.120.25.176
+        <v>- name: XL VIDIO BUG (8hjrjnvoc3.vidio.com)
+  type: trojan
+  server: 34.117.205.16
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4489,10 +4858,10 @@
     </row>
     <row r="69" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="C69" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4510,9 +4879,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (chat.vidio.com)
-  type: trojan
-  server: 34.120.25.176
+        <v>- name: XL VIDIO BUG (ovm.staging.vidio.com)
+  type: trojan
+  server: 34.117.233.20
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4534,10 +4903,10 @@
     </row>
     <row r="70" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="C70" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4555,9 +4924,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (indosat.staging.vidio.com)
-  type: trojan
-  server: 34.120.27.3
+        <v>- name: XL VIDIO BUG (hermes.vidio.com)
+  type: trojan
+  server: 34.117.241.252
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4579,10 +4948,10 @@
     </row>
     <row r="71" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4600,9 +4969,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (telkomsel.staging.vidio.com)
-  type: trojan
-  server: 34.120.27.3
+        <v>- name: XL VIDIO BUG (scm-iso.vidio.com)
+  type: trojan
+  server: 34.120.17.79
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4624,10 +4993,10 @@
     </row>
     <row r="72" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4645,9 +5014,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (posthog-staging.vidio.com)
-  type: trojan
-  server: 34.120.57.123
+        <v>- name: XL VIDIO BUG (live.vidio.com)
+  type: trojan
+  server: 34.120.25.176
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4667,12 +5036,12 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4690,9 +5059,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tmbubjryhvewc-origin-quiz-staging.vidio.com)
-  type: trojan
-  server: 34.120.74.32
+        <v>- name: XL VIDIO BUG (chat.vidio.com)
+  type: trojan
+  server: 34.120.25.176
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4714,10 +5083,10 @@
     </row>
     <row r="74" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4735,9 +5104,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (wp.staging.vidio.com)
-  type: trojan
-  server: 34.120.178.87
+        <v>- name: XL VIDIO BUG (indosat.staging.vidio.com)
+  type: trojan
+  server: 34.120.27.3
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4759,10 +5128,10 @@
     </row>
     <row r="75" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4780,9 +5149,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gandiwa.canary.prod.vidio.com)
-  type: trojan
-  server: 34.120.198.254
+        <v>- name: XL VIDIO BUG (telkomsel.staging.vidio.com)
+  type: trojan
+  server: 34.120.27.3
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4804,10 +5173,10 @@
     </row>
     <row r="76" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4825,9 +5194,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (lite.vidio.com)
-  type: trojan
-  server: 34.120.218.177
+        <v>- name: XL VIDIO BUG (posthog-staging.vidio.com)
+  type: trojan
+  server: 34.120.57.123
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4849,10 +5218,10 @@
     </row>
     <row r="77" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4870,9 +5239,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (dsa-web-iedu4coavee0poh1.vidio.com)
-  type: trojan
-  server: 34.120.218.177
+        <v>- name: XL VIDIO BUG (tmbubjryhvewc-origin-quiz-staging.vidio.com)
+  type: trojan
+  server: 34.120.74.32
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4894,10 +5263,10 @@
     </row>
     <row r="78" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C78" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4915,9 +5284,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (chatbot-api.staging.vidio.com)
-  type: trojan
-  server: 34.128.140.145
+        <v>- name: XL VIDIO BUG (wp.staging.vidio.com)
+  type: trojan
+  server: 34.120.178.87
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4939,10 +5308,10 @@
     </row>
     <row r="79" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C79" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -4960,9 +5329,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (scm-iso.staging.vidio.com)
-  type: trojan
-  server: 34.128.160.94
+        <v>- name: XL VIDIO BUG (gandiwa.canary.prod.vidio.com)
+  type: trojan
+  server: 34.120.198.254
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -4984,10 +5353,10 @@
     </row>
     <row r="80" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="C80" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5005,9 +5374,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (next.vidio.com)
-  type: trojan
-  server: 34.149.73.14
+        <v>- name: XL VIDIO BUG (lite.vidio.com)
+  type: trojan
+  server: 34.120.218.177
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5027,12 +5396,12 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C81" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5050,9 +5419,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (etslive-server.staging.vidio.com)
-  type: trojan
-  server: 34.149.114.137
+        <v>- name: XL VIDIO BUG (dsa-web-iedu4coavee0poh1.vidio.com)
+  type: trojan
+  server: 34.120.218.177
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5074,10 +5443,10 @@
     </row>
     <row r="82" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5095,9 +5464,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (c.vidio.com)
-  type: trojan
-  server: 34.149.115.28
+        <v>- name: XL VIDIO BUG (chatbot-api.staging.vidio.com)
+  type: trojan
+  server: 34.128.140.145
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5119,10 +5488,10 @@
     </row>
     <row r="83" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5140,9 +5509,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (whisper.staging.vidio.com)
-  type: trojan
-  server: 34.149.162.177
+        <v>- name: XL VIDIO BUG (scm-iso.staging.vidio.com)
+  type: trojan
+  server: 34.128.160.94
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5164,10 +5533,10 @@
     </row>
     <row r="84" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5185,9 +5554,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (hermes-cms.staging.vidio.com)
-  type: trojan
-  server: 34.149.171.88
+        <v>- name: XL VIDIO BUG (next.vidio.com)
+  type: trojan
+  server: 34.149.73.14
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5209,10 +5578,10 @@
     </row>
     <row r="85" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5230,9 +5599,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gandiwa-akamai.vidio.com)
-  type: trojan
-  server: 34.149.178.46
+        <v>- name: XL VIDIO BUG (etslive-server.staging.vidio.com)
+  type: trojan
+  server: 34.149.114.137
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5254,10 +5623,10 @@
     </row>
     <row r="86" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C86" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5275,9 +5644,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (chatbot-api.vidio.com)
-  type: trojan
-  server: 34.149.213.76
+        <v>- name: XL VIDIO BUG (c.vidio.com)
+  type: trojan
+  server: 34.149.115.28
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5299,10 +5668,10 @@
     </row>
     <row r="87" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="C87" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5320,9 +5689,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (wp.vidio.com)
-  type: trojan
-  server: 34.160.62.245
+        <v>- name: XL VIDIO BUG (whisper.staging.vidio.com)
+  type: trojan
+  server: 34.149.162.177
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5344,10 +5713,10 @@
     </row>
     <row r="88" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="C88" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5365,9 +5734,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (whisper.vidio.com)
-  type: trojan
-  server: 34.160.82.127
+        <v>- name: XL VIDIO BUG (hermes-cms.staging.vidio.com)
+  type: trojan
+  server: 34.149.171.88
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5389,10 +5758,10 @@
     </row>
     <row r="89" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C89" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5410,9 +5779,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (design.vidio.com)
-  type: trojan
-  server: 34.160.116.89
+        <v>- name: XL VIDIO BUG (gandiwa-akamai.vidio.com)
+  type: trojan
+  server: 34.149.178.46
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5434,10 +5803,10 @@
     </row>
     <row r="90" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C90" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5455,9 +5824,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ets-dashboard.vidio.com)
-  type: trojan
-  server: 34.160.129.207
+        <v>- name: XL VIDIO BUG (chatbot-api.vidio.com)
+  type: trojan
+  server: 34.149.213.76
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5479,10 +5848,10 @@
     </row>
     <row r="91" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5500,9 +5869,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (chatbot.vidio.com)
-  type: trojan
-  server: 34.160.245.6
+        <v>- name: XL VIDIO BUG (wp.vidio.com)
+  type: trojan
+  server: 34.160.62.245
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5524,10 +5893,10 @@
     </row>
     <row r="92" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5545,9 +5914,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (jifoer83jfei03.vidio.com)
-  type: trojan
-  server: 35.186.224.174
+        <v>- name: XL VIDIO BUG (whisper.vidio.com)
+  type: trojan
+  server: 34.160.82.127
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5567,12 +5936,12 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C93" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5590,9 +5959,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (vidio-web-prod-media-001-lb.vidio.com)
-  type: trojan
-  server: 35.186.228.30
+        <v>- name: XL VIDIO BUG (design.vidio.com)
+  type: trojan
+  server: 34.160.116.89
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5614,10 +5983,10 @@
     </row>
     <row r="94" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C94" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5635,9 +6004,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (live.staging.vidio.com)
-  type: trojan
-  server: 35.186.230.123
+        <v>- name: XL VIDIO BUG (ets-dashboard.vidio.com)
+  type: trojan
+  server: 34.160.129.207
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5659,10 +6028,10 @@
     </row>
     <row r="95" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C95" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5680,9 +6049,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (thumbor-gke.prod.vidio.com)
-  type: trojan
-  server: 35.186.232.49
+        <v>- name: XL VIDIO BUG (chatbot.vidio.com)
+  type: trojan
+  server: 34.160.245.6
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5704,10 +6073,10 @@
     </row>
     <row r="96" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="C96" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5725,9 +6094,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (airflow.int.vidio.com)
-  type: trojan
-  server: 35.190.6.114
+        <v>- name: XL VIDIO BUG (jifoer83jfei03.vidio.com)
+  type: trojan
+  server: 35.186.224.174
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5747,12 +6116,12 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="C97" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5770,9 +6139,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (psug4xogrt.int.vidio.com)
-  type: trojan
-  server: 35.190.23.193
+        <v>- name: XL VIDIO BUG (vidio-web-prod-media-001-lb.vidio.com)
+  type: trojan
+  server: 35.186.228.30
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5794,10 +6163,10 @@
     </row>
     <row r="98" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="C98" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5815,9 +6184,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (gandiwa.prod.vidio.com)
-  type: trojan
-  server: 35.190.31.252
+        <v>- name: XL VIDIO BUG (live.staging.vidio.com)
+  type: trojan
+  server: 35.186.230.123
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5839,10 +6208,10 @@
     </row>
     <row r="99" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="C99" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5860,9 +6229,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (lite.staging.vidio.com)
-  type: trojan
-  server: 35.190.83.167
+        <v>- name: XL VIDIO BUG (thumbor-gke.prod.vidio.com)
+  type: trojan
+  server: 35.186.232.49
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5884,10 +6253,10 @@
     </row>
     <row r="100" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5905,9 +6274,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (test.int.vidio.com)
-  type: trojan
-  server: 35.190.83.167
+        <v>- name: XL VIDIO BUG (airflow.int.vidio.com)
+  type: trojan
+  server: 35.190.6.114
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5929,10 +6298,10 @@
     </row>
     <row r="101" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5950,9 +6319,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (api.staging.vidio.com)
-  type: trojan
-  server: 35.190.83.167
+        <v>- name: XL VIDIO BUG (psug4xogrt.int.vidio.com)
+  type: trojan
+  server: 35.190.23.193
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -5974,10 +6343,10 @@
     </row>
     <row r="102" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -5995,9 +6364,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (m.staging.vidio.com)
-  type: trojan
-  server: 35.190.83.167
+        <v>- name: XL VIDIO BUG (gandiwa.prod.vidio.com)
+  type: trojan
+  server: 35.190.31.252
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6019,7 +6388,7 @@
     </row>
     <row r="103" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>139</v>
@@ -6040,7 +6409,7 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (staging.vidio.com)
+        <v>- name: XL VIDIO BUG (lite.staging.vidio.com)
   type: trojan
   server: 35.190.83.167
   port: 443
@@ -6064,7 +6433,7 @@
     </row>
     <row r="104" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>139</v>
@@ -6085,7 +6454,7 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (www.staging.vidio.com)
+        <v>- name: XL VIDIO BUG (test.int.vidio.com)
   type: trojan
   server: 35.190.83.167
   port: 443
@@ -6109,10 +6478,10 @@
     </row>
     <row r="105" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6130,9 +6499,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ocs-inventory.vidio.com)
-  type: trojan
-  server: 35.190.91.99
+        <v>- name: XL VIDIO BUG (api.staging.vidio.com)
+  type: trojan
+  server: 35.190.83.167
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6154,10 +6523,10 @@
     </row>
     <row r="106" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6175,9 +6544,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (contract-testing.staging.vidio.com)
-  type: trojan
-  server: 35.201.87.32
+        <v>- name: XL VIDIO BUG (m.staging.vidio.com)
+  type: trojan
+  server: 35.190.83.167
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6199,10 +6568,10 @@
     </row>
     <row r="107" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6220,9 +6589,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (hoppscotch.staging.vidio.com)
-  type: trojan
-  server: 35.201.87.32
+        <v>- name: XL VIDIO BUG (staging.vidio.com)
+  type: trojan
+  server: 35.190.83.167
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6244,10 +6613,10 @@
     </row>
     <row r="108" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6265,9 +6634,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (api-docs.vidio.com)
-  type: trojan
-  server: 35.201.87.32
+        <v>- name: XL VIDIO BUG (www.staging.vidio.com)
+  type: trojan
+  server: 35.190.83.167
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6289,10 +6658,10 @@
     </row>
     <row r="109" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6310,9 +6679,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (llhls.staging.vidio.com)
-  type: trojan
-  server: 35.201.93.59
+        <v>- name: XL VIDIO BUG (ocs-inventory.vidio.com)
+  type: trojan
+  server: 35.190.91.99
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6334,10 +6703,10 @@
     </row>
     <row r="110" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6355,9 +6724,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (hgktpzzg3r0e.vidio.com)
-  type: trojan
-  server: 35.227.198.227
+        <v>- name: XL VIDIO BUG (contract-testing.staging.vidio.com)
+  type: trojan
+  server: 35.201.87.32
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6379,10 +6748,10 @@
     </row>
     <row r="111" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="C111" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6400,9 +6769,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (etslive-app.vidio.com)
-  type: trojan
-  server: 35.227.202.147
+        <v>- name: XL VIDIO BUG (hoppscotch.staging.vidio.com)
+  type: trojan
+  server: 35.201.87.32
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6424,10 +6793,10 @@
     </row>
     <row r="112" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6445,9 +6814,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (careers.vidio.com)
-  type: trojan
-  server: 35.241.0.250
+        <v>- name: XL VIDIO BUG (api-docs.vidio.com)
+  type: trojan
+  server: 35.201.87.32
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6469,10 +6838,10 @@
     </row>
     <row r="113" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6490,9 +6859,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (iap.api.staging.vidio.com)
-  type: trojan
-  server: 35.241.18.33
+        <v>- name: XL VIDIO BUG (llhls.staging.vidio.com)
+  type: trojan
+  server: 35.201.93.59
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6514,10 +6883,10 @@
     </row>
     <row r="114" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="C114" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6535,9 +6904,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (m.int.vidio.com)
-  type: trojan
-  server: 35.241.18.33
+        <v>- name: XL VIDIO BUG (hgktpzzg3r0e.vidio.com)
+  type: trojan
+  server: 35.227.198.227
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6559,10 +6928,10 @@
     </row>
     <row r="115" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="C115" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6580,9 +6949,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (m.iap.staging.vidio.com)
-  type: trojan
-  server: 35.241.18.33
+        <v>- name: XL VIDIO BUG (etslive-app.vidio.com)
+  type: trojan
+  server: 35.227.202.147
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6604,10 +6973,10 @@
     </row>
     <row r="116" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6625,9 +6994,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (www.iap.staging.vidio.com)
-  type: trojan
-  server: 35.241.18.33
+        <v>- name: XL VIDIO BUG (careers.vidio.com)
+  type: trojan
+  server: 35.241.0.250
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6649,7 +7018,7 @@
     </row>
     <row r="117" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>158</v>
@@ -6670,7 +7039,7 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (int.vidio.com)
+        <v>- name: XL VIDIO BUG (iap.api.staging.vidio.com)
   type: trojan
   server: 35.241.18.33
   port: 443
@@ -6694,7 +7063,7 @@
     </row>
     <row r="118" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>158</v>
@@ -6715,7 +7084,7 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (iap.staging.vidio.com)
+        <v>- name: XL VIDIO BUG (m.int.vidio.com)
   type: trojan
   server: 35.241.18.33
   port: 443
@@ -6739,10 +7108,10 @@
     </row>
     <row r="119" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C119" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6760,9 +7129,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (kmm.docs.vidio.com)
-  type: trojan
-  server: 35.241.56.225
+        <v>- name: XL VIDIO BUG (m.iap.staging.vidio.com)
+  type: trojan
+  server: 35.241.18.33
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6784,10 +7153,10 @@
     </row>
     <row r="120" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="C120" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6805,9 +7174,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (ets-subtitle-generator-api.vidio.com)
-  type: trojan
-  server: 35.244.131.47
+        <v>- name: XL VIDIO BUG (www.iap.staging.vidio.com)
+  type: trojan
+  server: 35.241.18.33
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6827,12 +7196,12 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="C121" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6850,9 +7219,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (cxvpemlvbgo-origin-quiz-dsa.int.vidio.com)
-  type: trojan
-  server: 35.244.147.166
+        <v>- name: XL VIDIO BUG (int.vidio.com)
+  type: trojan
+  server: 35.241.18.33
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6874,10 +7243,10 @@
     </row>
     <row r="122" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="C122" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6895,9 +7264,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (static02.staging.vidio.com)
-  type: trojan
-  server: 35.244.184.31
+        <v>- name: XL VIDIO BUG (iap.staging.vidio.com)
+  type: trojan
+  server: 35.241.18.33
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6919,10 +7288,10 @@
     </row>
     <row r="123" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6940,9 +7309,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (yz3nq6kn0m.int.vidio.com)
-  type: trojan
-  server: 35.244.184.31
+        <v>- name: XL VIDIO BUG (kmm.docs.vidio.com)
+  type: trojan
+  server: 35.241.56.225
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -6964,10 +7333,10 @@
     </row>
     <row r="124" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C124" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -6985,9 +7354,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tee3ahl2ch.vidio.com)
-  type: trojan
-  server: 35.244.220.18
+        <v>- name: XL VIDIO BUG (ets-subtitle-generator-api.vidio.com)
+  type: trojan
+  server: 35.244.131.47
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7007,12 +7376,12 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C125" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7030,9 +7399,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (int.live.vidio.com)
-  type: trojan
-  server: 35.244.250.135
+        <v>- name: XL VIDIO BUG (cxvpemlvbgo-origin-quiz-dsa.int.vidio.com)
+  type: trojan
+  server: 35.244.147.166
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7054,10 +7423,10 @@
     </row>
     <row r="126" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="C126" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7075,9 +7444,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (careers.staging.vidio.com)
-  type: trojan
-  server: 52.223.53.203
+        <v>- name: XL VIDIO BUG (static02.staging.vidio.com)
+  type: trojan
+  server: 35.244.184.31
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7097,12 +7466,12 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7120,9 +7489,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (livestreaming-swiftserve-etslive.vidio.com)
-  type: trojan
-  server: 58.27.5.110
+        <v>- name: XL VIDIO BUG (yz3nq6kn0m.int.vidio.com)
+  type: trojan
+  server: 35.244.184.31
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7144,10 +7513,10 @@
     </row>
     <row r="128" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="C128" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7165,9 +7534,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (email1.vidio.com)
-  type: trojan
-  server: 77.32.151.177
+        <v>- name: XL VIDIO BUG (tee3ahl2ch.vidio.com)
+  type: trojan
+  server: 35.244.220.18
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7189,10 +7558,10 @@
     </row>
     <row r="129" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="C129" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7210,9 +7579,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (email2.vidio.com)
-  type: trojan
-  server: 77.32.151.201
+        <v>- name: XL VIDIO BUG (int.live.vidio.com)
+  type: trojan
+  server: 35.244.250.135
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7234,10 +7603,10 @@
     </row>
     <row r="130" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="C130" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7255,9 +7624,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (m.vidio.com)
-  type: trojan
-  server: 88.221.132.209
+        <v>- name: XL VIDIO BUG (careers.staging.vidio.com)
+  type: trojan
+  server: 52.223.53.203
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7277,12 +7646,12 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C131" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7300,9 +7669,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (tv.vidio.com)
-  type: trojan
-  server: 96.16.53.137
+        <v>- name: XL VIDIO BUG (livestreaming-swiftserve-etslive.vidio.com)
+  type: trojan
+  server: 58.27.5.110
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7324,10 +7693,10 @@
     </row>
     <row r="132" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C132" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7345,9 +7714,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (quiz.staging.vidio.com)
-  type: trojan
-  server: 104.20.9.155
+        <v>- name: XL VIDIO BUG (email1.vidio.com)
+  type: trojan
+  server: 77.32.151.177
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7369,10 +7738,10 @@
     </row>
     <row r="133" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C133" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7390,9 +7759,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (quiz.int.vidio.com)
-  type: trojan
-  server: 104.22.5.240
+        <v>- name: XL VIDIO BUG (email2.vidio.com)
+  type: trojan
+  server: 77.32.151.201
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7414,10 +7783,10 @@
     </row>
     <row r="134" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="C134" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7435,9 +7804,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (livestreaming-fashion.vidio.com)
-  type: trojan
-  server: 115.164.13.243
+        <v>- name: XL VIDIO BUG (m.vidio.com)
+  type: trojan
+  server: 88.221.132.209
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7459,10 +7828,10 @@
     </row>
     <row r="135" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C135" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7480,9 +7849,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (livestreaming-etslive.vidio.com)
-  type: trojan
-  server: 122.11.168.9
+        <v>- name: XL VIDIO BUG (tv.vidio.com)
+  type: trojan
+  server: 96.16.53.137
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7504,10 +7873,10 @@
     </row>
     <row r="136" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="C136" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7525,9 +7894,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (kpi.vidio.com)
-  type: trojan
-  server: 142.250.150.121
+        <v>- name: XL VIDIO BUG (livestreaming-fashion.vidio.com)
+  type: trojan
+  server: 115.164.13.243
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7549,10 +7918,10 @@
     </row>
     <row r="137" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="C137" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7570,9 +7939,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (inside.vidio.com)
-  type: trojan
-  server: 142.250.181.243
+        <v>- name: XL VIDIO BUG (livestreaming-etslive.vidio.com)
+  type: trojan
+  server: 122.11.168.9
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7594,10 +7963,10 @@
     </row>
     <row r="138" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="C138" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7615,9 +7984,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (app.vidio.com)
-  type: trojan
-  server: 151.101.65.195
+        <v>- name: XL VIDIO BUG (kpi.vidio.com)
+  type: trojan
+  server: 142.250.150.121
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7639,10 +8008,10 @@
     </row>
     <row r="139" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="C139" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7660,9 +8029,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (support.vidio.com)
-  type: trojan
-  server: 172.66.0.145
+        <v>- name: XL VIDIO BUG (inside.vidio.com)
+  type: trojan
+  server: 142.250.181.243
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -7684,10 +8053,10 @@
     </row>
     <row r="140" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C140" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
@@ -7705,9 +8074,9 @@
 "      Host: vip-7.indoxray.top",
 "  udp: true"
 )</f>
-        <v>- name: XL VIDIO BUG (quiz.vidio.com)
-  type: trojan
-  server: 172.67.5.14
+        <v>- name: XL VIDIO BUG (app.vidio.com)
+  type: trojan
+  server: 151.101.65.195
   port: 443
   password: 594d1919-99cd-4002-aec3-0c07180b6c46
   skip-cert-verify: true
@@ -8317,6 +8686,587 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260602A-EED4-40CE-A66F-D0F1A6D55EA0}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B2),
+"  port: 443",
+"  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4",
+"  skip-cert-verify: true",
+"  sni: sgdo.ordervip.cloud",
+"  network: ws",
+"  ws-opts:",
+"    path: /trojan-ws",
+"    headers:",
+"      Host: sgdo.ordervip.cloud",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (img.email1.vidio.com)
+  type: trojan
+  server: img.email1.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D2" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; F2 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(G2),
+"  port: 443",
+"  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4",
+"  skip-cert-verify: true",
+"  sni: sgdo.ordervip.cloud",
+"  network: ws",
+"  ws-opts:",
+"    path: /trojan-ws",
+"    headers:",
+"      Host: sgdo.ordervip.cloud",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (104.17.159.243)
+  type: trojan
+  server: 104.17.159.243
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I2" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f t="shared" ref="C3:C10" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A3 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B3),
+"  port: 443",
+"  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4",
+"  skip-cert-verify: true",
+"  sni: sgdo.ordervip.cloud",
+"  network: ws",
+"  ws-opts:",
+"    path: /trojan-ws",
+"    headers:",
+"      Host: sgdo.ordervip.cloud",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (img.email2.vidio.com)
+  type: trojan
+  server: img.email2.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D3" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f t="shared" ref="H3:H10" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; F3 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(G3),
+"  port: 443",
+"  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4",
+"  skip-cert-verify: true",
+"  sni: sgdo.ordervip.cloud",
+"  network: ws",
+"  ws-opts:",
+"    path: /trojan-ws",
+"    headers:",
+"      Host: sgdo.ordervip.cloud",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (104.17.159.243)
+  type: trojan
+  server: 104.17.159.243
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I3" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (img.email3.vidio.com)
+  type: trojan
+  server: img.email3.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (104.17.156.243)
+  type: trojan
+  server: 104.17.156.243
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (quiz.int.vidio.com)
+  type: trojan
+  server: quiz.int.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (104.22.5.240)
+  type: trojan
+  server: 104.22.5.240
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I5" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (quiz.staging.vidio.com)
+  type: trojan
+  server: quiz.staging.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (104.22.4.240)
+  type: trojan
+  server: 104.22.4.240
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I6" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (quiz.int.vidio.com)
+  type: trojan
+  server: quiz.int.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (104.20.9.155)
+  type: trojan
+  server: 104.20.9.155
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I7" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (quiz.vidio.com )
+  type: trojan
+  server: quiz.vidio.com 
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (104.22.4.240)
+  type: trojan
+  server: 104.22.4.240
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I8" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (nontontv.vidio.com)
+  type: trojan
+  server: nontontv.vidio.com
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (172.67.5.14)
+  type: trojan
+  server: 172.67.5.14
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I9" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (support.vidio.com )
+  type: trojan
+  server: support.vidio.com 
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="D10" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL VIDIO BUG (172.66.0.145)
+  type: trojan
+  server: 172.66.0.145
+  port: 443
+  password: 1b789391-80d1-4bc8-ae95-39865c94a0f4
+  skip-cert-verify: true
+  sni: sgdo.ordervip.cloud
+  network: ws
+  ws-opts:
+    path: /trojan-ws
+    headers:
+      Host: sgdo.ordervip.cloud
+  udp: true</v>
+      </c>
+      <c r="I10" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FORMAT AKUN BUG.xlsx
+++ b/FORMAT AKUN BUG.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhgi\OneDrive\Documents\[6] Config\AKUN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3209B-C48D-40A1-951B-1615E74DE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCCAFA-23D4-4F14-9C4F-0E88019C7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ALLBUG" sheetId="1" r:id="rId1"/>
+    <sheet name="TROJAN" sheetId="2" r:id="rId2"/>
+    <sheet name="VMESS" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="280">
   <si>
     <t>r.email1.vidio.com</t>
   </si>
@@ -1098,7 +1100,203 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
+          <xfpb:DXFComplement i="0"/>
+        </ext>
+      </extLst>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
+          <xfpb:DXFComplement i="0"/>
+        </ext>
+      </extLst>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1117,6 +1315,86 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1233,6 +1511,42 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1256,23 +1570,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1429,15 +1726,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}" name="Table13" displayName="Table13" ref="A1:D153" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}" name="Table13" displayName="Table13" ref="A1:D153" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:D153" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
     <sortCondition descending="1" ref="D1:D153"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE15E59B-281A-4A25-9A81-7524375CF090}" name="SUB DOMAIN X" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{36EC843D-8E5B-4B48-8AEB-FD570676056D}" name="HOST X" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{554A2BE2-9691-457B-8875-304756921160}" name="FORMAT" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{AE15E59B-281A-4A25-9A81-7524375CF090}" name="SUB DOMAIN X" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{36EC843D-8E5B-4B48-8AEB-FD570676056D}" name="HOST X" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{554A2BE2-9691-457B-8875-304756921160}" name="FORMAT" dataDxfId="23">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "  type: trojan",
@@ -1454,19 +1751,19 @@
 "  udp: true"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{358BB907-0FC0-4665-AA0C-2C4F2C195190}" name="STATUS" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{358BB907-0FC0-4665-AA0C-2C4F2C195190}" name="STATUS" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:D10" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{849FBBC5-66D6-429F-B0D4-E180D61C0509}" name="SUB DOMAIN X" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{103867F1-2938-46CA-976E-C70D20BE405C}" name="HOST X" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E2D76F45-9A42-4146-B049-C234D70F47A0}" name="FORMAT" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{849FBBC5-66D6-429F-B0D4-E180D61C0509}" name="SUB DOMAIN X" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{103867F1-2938-46CA-976E-C70D20BE405C}" name="HOST X" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{E2D76F45-9A42-4146-B049-C234D70F47A0}" name="FORMAT" dataDxfId="15">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "  type: trojan",
@@ -1483,7 +1780,74 @@
 "  udp: true"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DF9DD8BE-0C1D-4B4E-AA7E-374C34C84DF2}" name="STATUS" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DF9DD8BE-0C1D-4B4E-AA7E-374C34C84DF2}" name="STATUS" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09F7A86B-B4AD-40E4-8342-FFAA24BEEA68}" name="Table14" displayName="Table14" ref="A1:D10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:D10" xr:uid="{09F7A86B-B4AD-40E4-8342-FFAA24BEEA68}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7FABE973-C906-4310-A88F-F6B9893A27C5}" name="SUB DOMAIN X" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BC5FDF9-D244-4C68-A86E-7E1349E362A2}" name="HOST X" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2567FAFF-1E27-464C-BA77-A13021EF4E5A}" name="FORMAT" dataDxfId="6">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"    server: " &amp; T(B2),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C84FBA53-173F-47CA-A8A1-952AFE883501}" name="STATUS" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50B5944C-7E91-4272-9950-2810987ADF78}" name="Table134" displayName="Table134" ref="A1:D153" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D153" xr:uid="{50B5944C-7E91-4272-9950-2810987ADF78}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
+    <sortCondition descending="1" ref="D1:D153"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DB42EB44-EC62-4950-A1CA-2E7DB5DC4430}" name="SUB DOMAIN X" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0D6105A9-4337-4537-A812-493FB98DBDDC}" name="HOST X" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7A156327-DBAE-43C9-B16F-3352D8C62BEE}" name="FORMAT" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"    server: " &amp; T(B2),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{756C6709-A132-4B2C-B360-CB2EA8311EEA}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1808,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC9CBF1-1B5E-438E-80D4-40D297E130F8}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +2212,7 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C2:C33" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B2),
@@ -1894,21 +2258,7 @@
         <v>184</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A3 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B3),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (img.email2.vidio.com)
   type: trojan
   server: 104.17.156.243
@@ -1939,21 +2289,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A4 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B4),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (img.email1.vidio.com)
   type: trojan
   server: 104.17.157.243
@@ -1984,21 +2320,7 @@
         <v>189</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A5 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B5),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (quiz.staging.vidio.com)
   type: trojan
   server: 104.20.9.155
@@ -2029,21 +2351,7 @@
         <v>191</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A6 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B6),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (quiz.int.vidio.com)
   type: trojan
   server: 104.22.5.240
@@ -2074,21 +2382,7 @@
         <v>201</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A7 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B7),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (support.vidio.com)
   type: trojan
   server: 172.66.0.145
@@ -2119,21 +2413,7 @@
         <v>203</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A8 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B8),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (quiz.vidio.com)
   type: trojan
   server: 172.67.5.14
@@ -2164,21 +2444,7 @@
         <v>223</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A9 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B9),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (r.email2.vidio.com)
   type: trojan
   server: 1.179.112.197
@@ -2209,21 +2475,7 @@
         <v>222</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A10 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B10),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (r.email1.vidio.com)
   type: trojan
   server: 1.179.112.195
@@ -2254,21 +2506,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A11 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B11),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (r.email3.vidio.com)
   type: trojan
   server: 1.179.120.3
@@ -2299,21 +2537,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A12 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B12),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (tv.alpha.vidio.com)
   type: trojan
   server: 2.18.121.18
@@ -2344,21 +2568,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A13 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B13),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (www-dsa.staging.vidio.com)
   type: trojan
   server: 2.18.121.19
@@ -2389,21 +2599,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A14 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B14),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (tv.staging.vidio.com)
   type: trojan
   server: 2.18.121.19
@@ -2434,21 +2630,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A15 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B15),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (stickers.vidio.com)
   type: trojan
   server: 2.18.188.68
@@ -2479,21 +2661,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A16 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B16),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (m.dev.vidio.com)
   type: trojan
   server: 10.252.38.18
@@ -2524,21 +2692,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A17 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B17),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (api.dev.vidio.com)
   type: trojan
   server: 10.252.38.18
@@ -2569,21 +2723,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A18 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B18),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (dev.vidio.com)
   type: trojan
   server: 10.252.38.18
@@ -2614,21 +2754,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A19 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B19),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (www.dev.vidio.com)
   type: trojan
   server: 10.252.38.18
@@ -2659,21 +2785,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A20 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B20),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (app-log-analyzer-api.staging.vidio.com)
   type: trojan
   server: 10.252.88.130
@@ -2704,21 +2816,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A21 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B21),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (api.vidio.com)
   type: trojan
   server: 23.50.131.22
@@ -2749,21 +2847,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A22 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B22),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (gandiwa.staging.vidio.com)
   type: trojan
   server: 23.55.236.67
@@ -2794,21 +2878,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A23 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B23),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (gandiwa.vidio.com)
   type: trojan
   server: 23.55.236.77
@@ -2839,21 +2909,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A24 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B24),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (www.vidio.com)
   type: trojan
   server: 23.216.77.76
@@ -2884,21 +2940,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A25 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B25),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (gandiwa-akamai.staging.vidio.com)
   type: trojan
   server: 34.8.8.6
@@ -2929,21 +2971,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A26 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B26),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (license.staging.vidio.com)
   type: trojan
   server: 34.36.103.2
@@ -2974,21 +3002,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A27 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B27),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (link.promo.vidio.com)
   type: trojan
   server: 34.36.107.183
@@ -3019,21 +3033,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A28 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B28),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (ongi9angbeef5iw8-tv-dsa.vidio.com)
   type: trojan
   server: 34.36.193.7
@@ -3064,21 +3064,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A29 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B29),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (vidio-media-interopt.int.vidio.com)
   type: trojan
   server: 34.36.229.42
@@ -3109,21 +3095,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A30 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B30),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (next.staging.vidio.com)
   type: trojan
   server: 34.36.255.56
@@ -3154,21 +3126,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A31 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B31),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (iso.vidio.com)
   type: trojan
   server: 34.49.22.44
@@ -3199,21 +3157,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A32 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B32),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (ets-subtitle-generator-api.staging.vidio.com)
   type: trojan
   server: 34.49.62.158
@@ -3244,21 +3188,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A33 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B33),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="0"/>
         <v>- name: XL VIDIO BUG (next-akamai.staging.vidio.com)
   type: trojan
   server: 34.49.98.65
@@ -3289,7 +3219,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C34:C65" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A34 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B34),
@@ -3334,21 +3264,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A35 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B35),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (iso.staging.vidio.com)
   type: trojan
   server: 34.49.200.223
@@ -3379,21 +3295,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A36 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B36),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (indosat.vidio.com)
   type: trojan
   server: 34.87.37.125
@@ -3424,21 +3326,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A37 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B37),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (media.origin.dev.vidio.com)
   type: trojan
   server: 34.95.72.198
@@ -3469,21 +3357,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A38 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B38),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (cdn-a.origin.dev.vidio.com)
   type: trojan
   server: 34.95.72.198
@@ -3514,21 +3388,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A39 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B39),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (static-quiz.origin.int.vidio.com)
   type: trojan
   server: 34.95.85.215
@@ -3559,21 +3419,7 @@
         <v>55</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A40 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B40),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (dashboard-quiz.int.vidio.com)
   type: trojan
   server: 34.95.93.223
@@ -3604,21 +3450,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A41 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B41),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (demo-etslive.int.vidio.com)
   type: trojan
   server: 34.95.101.136
@@ -3649,21 +3481,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A42 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B42),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (airflow.vidio.com)
   type: trojan
   server: 34.95.108.145
@@ -3694,21 +3512,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A43 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B43),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (static-origin.dev.vidio.com)
   type: trojan
   server: 34.96.79.191
@@ -3739,21 +3543,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A44 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B44),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (hydra.staging.vidio.com)
   type: trojan
   server: 34.96.108.148
@@ -3784,21 +3574,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A45 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B45),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (static03.staging.vidio.com)
   type: trojan
   server: 34.98.97.95
@@ -3829,21 +3605,7 @@
         <v>67</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A46 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B46),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (dboreja4fu.int.vidio.com)
   type: trojan
   server: 34.98.125.177
@@ -3874,21 +3636,7 @@
         <v>225</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A47 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B47),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (aequ1kie7b.vidio.com)
   type: trojan
   server: 34.102.158.190
@@ -3919,21 +3667,7 @@
         <v>226</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A48 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B48),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (tv-gke.staging.vidio.com)
   type: trojan
   server: 34.102.199.9
@@ -3964,21 +3698,7 @@
         <v>226</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A49 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B49),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (lasjk21bda21-tv-dsa.staging.vidio.com)
   type: trojan
   server: 34.102.199.9
@@ -4009,21 +3729,7 @@
         <v>227</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A50 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B50),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (thumbor-gke.dev.vidio.com)
   type: trojan
   server: 34.102.200.171
@@ -4054,21 +3760,7 @@
         <v>228</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A51 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B51),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (peehain1ee.vidio.com)
   type: trojan
   server: 34.107.135.0
@@ -4099,21 +3791,7 @@
         <v>229</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A52 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B52),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (ckp66utx.vidio.com)
   type: trojan
   server: 34.107.146.29
@@ -4144,21 +3822,7 @@
         <v>230</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A53 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B53),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (api-ns.int.vidio.com)
   type: trojan
   server: 34.107.179.150
@@ -4189,21 +3853,7 @@
         <v>231</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A54 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B54),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (tst-aqcdqr1234.staging.vidio.com)
   type: trojan
   server: 34.107.198.29
@@ -4234,21 +3884,7 @@
         <v>232</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A55 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B55),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (gmvpwepkj3.int.vidio.com)
   type: trojan
   server: 34.107.223.52
@@ -4279,21 +3915,7 @@
         <v>233</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A56 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B56),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (license.vidio.com)
   type: trojan
   server: 34.110.165.83
@@ -4324,21 +3946,7 @@
         <v>234</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A57 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B57),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (staging-plenty.vidio.com)
   type: trojan
   server: 34.110.192.133
@@ -4369,21 +3977,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A58 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B58),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (api-ns.vidio.com)
   type: trojan
   server: 34.111.60.67
@@ -4414,21 +4008,7 @@
         <v>235</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A59 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B59),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (blog.staging.vidio.com)
   type: trojan
   server: 34.111.113.121
@@ -4459,21 +4039,7 @@
         <v>236</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A60 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B60),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (plenty.vidio.com)
   type: trojan
   server: 34.111.228.151
@@ -4504,21 +4070,7 @@
         <v>237</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A61 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B61),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (blog.vidio.com)
   type: trojan
   server: 34.111.253.69
@@ -4549,21 +4101,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A62 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B62),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (w3hh46zt.staging.vidio.com)
   type: trojan
   server: 34.117.25.214
@@ -4594,21 +4132,7 @@
         <v>87</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A63 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B63),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (etslive-server.vidio.com)
   type: trojan
   server: 34.117.26.33
@@ -4639,21 +4163,7 @@
         <v>238</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A64 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B64),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (hermes.staging.vidio.com)
   type: trojan
   server: 34.117.150.41
@@ -4684,21 +4194,7 @@
         <v>239</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A65 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B65),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="1"/>
         <v>- name: XL VIDIO BUG (jjndi0k9m2.int.vidio.com)
   type: trojan
   server: 34.117.162.195
@@ -4729,7 +4225,7 @@
         <v>240</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C66:C97" si="2">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A66 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B66),
@@ -4774,21 +4270,7 @@
         <v>241</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A67 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B67),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (thumbor-gke.staging.vidio.com)
   type: trojan
   server: 34.117.204.147
@@ -4819,21 +4301,7 @@
         <v>242</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A68 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B68),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (8hjrjnvoc3.vidio.com)
   type: trojan
   server: 34.117.205.16
@@ -4864,21 +4332,7 @@
         <v>243</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A69 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B69),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (ovm.staging.vidio.com)
   type: trojan
   server: 34.117.233.20
@@ -4909,21 +4363,7 @@
         <v>244</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A70 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B70),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (hermes.vidio.com)
   type: trojan
   server: 34.117.241.252
@@ -4954,21 +4394,7 @@
         <v>96</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A71 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B71),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (scm-iso.vidio.com)
   type: trojan
   server: 34.120.17.79
@@ -4999,21 +4425,7 @@
         <v>98</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A72 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B72),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (live.vidio.com)
   type: trojan
   server: 34.120.25.176
@@ -5044,21 +4456,7 @@
         <v>98</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A73 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B73),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (chat.vidio.com)
   type: trojan
   server: 34.120.25.176
@@ -5089,21 +4487,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A74 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B74),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (indosat.staging.vidio.com)
   type: trojan
   server: 34.120.27.3
@@ -5134,21 +4518,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A75 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B75),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (telkomsel.staging.vidio.com)
   type: trojan
   server: 34.120.27.3
@@ -5179,21 +4549,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A76 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B76),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (posthog-staging.vidio.com)
   type: trojan
   server: 34.120.57.123
@@ -5224,21 +4580,7 @@
         <v>106</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A77 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B77),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (tmbubjryhvewc-origin-quiz-staging.vidio.com)
   type: trojan
   server: 34.120.74.32
@@ -5269,21 +4611,7 @@
         <v>245</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A78 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B78),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (wp.staging.vidio.com)
   type: trojan
   server: 34.120.178.87
@@ -5314,21 +4642,7 @@
         <v>246</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A79 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B79),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (gandiwa.canary.prod.vidio.com)
   type: trojan
   server: 34.120.198.254
@@ -5359,21 +4673,7 @@
         <v>247</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A80 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B80),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (lite.vidio.com)
   type: trojan
   server: 34.120.218.177
@@ -5404,21 +4704,7 @@
         <v>247</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A81 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B81),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (dsa-web-iedu4coavee0poh1.vidio.com)
   type: trojan
   server: 34.120.218.177
@@ -5449,21 +4735,7 @@
         <v>248</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A82 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B82),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (chatbot-api.staging.vidio.com)
   type: trojan
   server: 34.128.140.145
@@ -5494,21 +4766,7 @@
         <v>249</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A83 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B83),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (scm-iso.staging.vidio.com)
   type: trojan
   server: 34.128.160.94
@@ -5539,21 +4797,7 @@
         <v>114</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A84 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B84),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (next.vidio.com)
   type: trojan
   server: 34.149.73.14
@@ -5584,21 +4828,7 @@
         <v>250</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A85 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B85),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (etslive-server.staging.vidio.com)
   type: trojan
   server: 34.149.114.137
@@ -5629,21 +4859,7 @@
         <v>251</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A86 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B86),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (c.vidio.com)
   type: trojan
   server: 34.149.115.28
@@ -5674,21 +4890,7 @@
         <v>252</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A87 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B87),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (whisper.staging.vidio.com)
   type: trojan
   server: 34.149.162.177
@@ -5719,21 +4921,7 @@
         <v>253</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A88 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B88),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (hermes-cms.staging.vidio.com)
   type: trojan
   server: 34.149.171.88
@@ -5764,21 +4952,7 @@
         <v>254</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A89 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B89),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (gandiwa-akamai.vidio.com)
   type: trojan
   server: 34.149.178.46
@@ -5809,21 +4983,7 @@
         <v>255</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A90 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B90),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (chatbot-api.vidio.com)
   type: trojan
   server: 34.149.213.76
@@ -5854,21 +5014,7 @@
         <v>122</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A91 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B91),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (wp.vidio.com)
   type: trojan
   server: 34.160.62.245
@@ -5899,21 +5045,7 @@
         <v>124</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A92 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B92),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (whisper.vidio.com)
   type: trojan
   server: 34.160.82.127
@@ -5944,21 +5076,7 @@
         <v>256</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A93 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B93),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (design.vidio.com)
   type: trojan
   server: 34.160.116.89
@@ -5989,21 +5107,7 @@
         <v>257</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A94 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B94),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (ets-dashboard.vidio.com)
   type: trojan
   server: 34.160.129.207
@@ -6034,21 +5138,7 @@
         <v>258</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A95 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B95),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (chatbot.vidio.com)
   type: trojan
   server: 34.160.245.6
@@ -6079,21 +5169,7 @@
         <v>259</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A96 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B96),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (jifoer83jfei03.vidio.com)
   type: trojan
   server: 35.186.224.174
@@ -6124,21 +5200,7 @@
         <v>260</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A97 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B97),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="2"/>
         <v>- name: XL VIDIO BUG (vidio-web-prod-media-001-lb.vidio.com)
   type: trojan
   server: 35.186.228.30
@@ -6169,7 +5231,7 @@
         <v>261</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C98:C129" si="3">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A98 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B98),
@@ -6214,21 +5276,7 @@
         <v>262</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A99 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B99),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (thumbor-gke.prod.vidio.com)
   type: trojan
   server: 35.186.232.49
@@ -6259,21 +5307,7 @@
         <v>133</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A100 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B100),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (airflow.int.vidio.com)
   type: trojan
   server: 35.190.6.114
@@ -6304,21 +5338,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A101 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B101),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (psug4xogrt.int.vidio.com)
   type: trojan
   server: 35.190.23.193
@@ -6349,21 +5369,7 @@
         <v>137</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A102 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B102),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (gandiwa.prod.vidio.com)
   type: trojan
   server: 35.190.31.252
@@ -6394,21 +5400,7 @@
         <v>139</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A103 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B103),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (lite.staging.vidio.com)
   type: trojan
   server: 35.190.83.167
@@ -6439,21 +5431,7 @@
         <v>139</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A104 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B104),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (test.int.vidio.com)
   type: trojan
   server: 35.190.83.167
@@ -6484,21 +5462,7 @@
         <v>139</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A105 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B105),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (api.staging.vidio.com)
   type: trojan
   server: 35.190.83.167
@@ -6529,21 +5493,7 @@
         <v>139</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A106 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B106),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (m.staging.vidio.com)
   type: trojan
   server: 35.190.83.167
@@ -6574,21 +5524,7 @@
         <v>139</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A107 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B107),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (staging.vidio.com)
   type: trojan
   server: 35.190.83.167
@@ -6619,21 +5555,7 @@
         <v>139</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A108 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B108),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (www.staging.vidio.com)
   type: trojan
   server: 35.190.83.167
@@ -6664,21 +5586,7 @@
         <v>146</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A109 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B109),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (ocs-inventory.vidio.com)
   type: trojan
   server: 35.190.91.99
@@ -6709,21 +5617,7 @@
         <v>148</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A110 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B110),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (contract-testing.staging.vidio.com)
   type: trojan
   server: 35.201.87.32
@@ -6754,21 +5648,7 @@
         <v>148</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A111 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B111),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (hoppscotch.staging.vidio.com)
   type: trojan
   server: 35.201.87.32
@@ -6799,21 +5679,7 @@
         <v>148</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A112 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B112),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (api-docs.vidio.com)
   type: trojan
   server: 35.201.87.32
@@ -6844,21 +5710,7 @@
         <v>152</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A113 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B113),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (llhls.staging.vidio.com)
   type: trojan
   server: 35.201.93.59
@@ -6889,21 +5741,7 @@
         <v>263</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A114 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B114),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (hgktpzzg3r0e.vidio.com)
   type: trojan
   server: 35.227.198.227
@@ -6934,21 +5772,7 @@
         <v>264</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A115 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B115),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (etslive-app.vidio.com)
   type: trojan
   server: 35.227.202.147
@@ -6979,21 +5803,7 @@
         <v>156</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A116 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B116),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (careers.vidio.com)
   type: trojan
   server: 35.241.0.250
@@ -7024,21 +5834,7 @@
         <v>158</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A117 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B117),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (iap.api.staging.vidio.com)
   type: trojan
   server: 35.241.18.33
@@ -7069,21 +5865,7 @@
         <v>158</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A118 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B118),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (m.int.vidio.com)
   type: trojan
   server: 35.241.18.33
@@ -7114,21 +5896,7 @@
         <v>158</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A119 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B119),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (m.iap.staging.vidio.com)
   type: trojan
   server: 35.241.18.33
@@ -7159,21 +5927,7 @@
         <v>158</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A120 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B120),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (www.iap.staging.vidio.com)
   type: trojan
   server: 35.241.18.33
@@ -7204,21 +5958,7 @@
         <v>158</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A121 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B121),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (int.vidio.com)
   type: trojan
   server: 35.241.18.33
@@ -7249,21 +5989,7 @@
         <v>158</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A122 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B122),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (iap.staging.vidio.com)
   type: trojan
   server: 35.241.18.33
@@ -7294,21 +6020,7 @@
         <v>165</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A123 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B123),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (kmm.docs.vidio.com)
   type: trojan
   server: 35.241.56.225
@@ -7339,21 +6051,7 @@
         <v>265</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A124 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B124),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (ets-subtitle-generator-api.vidio.com)
   type: trojan
   server: 35.244.131.47
@@ -7384,21 +6082,7 @@
         <v>266</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A125 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B125),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (cxvpemlvbgo-origin-quiz-dsa.int.vidio.com)
   type: trojan
   server: 35.244.147.166
@@ -7429,21 +6113,7 @@
         <v>267</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A126 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B126),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (static02.staging.vidio.com)
   type: trojan
   server: 35.244.184.31
@@ -7474,21 +6144,7 @@
         <v>267</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A127 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B127),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (yz3nq6kn0m.int.vidio.com)
   type: trojan
   server: 35.244.184.31
@@ -7519,21 +6175,7 @@
         <v>268</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A128 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B128),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (tee3ahl2ch.vidio.com)
   type: trojan
   server: 35.244.220.18
@@ -7564,21 +6206,7 @@
         <v>269</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A129 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B129),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="3"/>
         <v>- name: XL VIDIO BUG (int.live.vidio.com)
   type: trojan
   server: 35.244.250.135
@@ -7609,7 +6237,7 @@
         <v>173</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C130:C161" si="4">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A130 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B130),
@@ -7654,21 +6282,7 @@
         <v>175</v>
       </c>
       <c r="C131" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A131 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B131),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (livestreaming-swiftserve-etslive.vidio.com)
   type: trojan
   server: 58.27.5.110
@@ -7699,21 +6313,7 @@
         <v>177</v>
       </c>
       <c r="C132" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A132 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B132),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (email1.vidio.com)
   type: trojan
   server: 77.32.151.177
@@ -7744,21 +6344,7 @@
         <v>179</v>
       </c>
       <c r="C133" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A133 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B133),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (email2.vidio.com)
   type: trojan
   server: 77.32.151.201
@@ -7789,21 +6375,7 @@
         <v>270</v>
       </c>
       <c r="C134" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A134 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B134),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (m.vidio.com)
   type: trojan
   server: 88.221.132.209
@@ -7834,21 +6406,7 @@
         <v>182</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A135 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B135),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (tv.vidio.com)
   type: trojan
   server: 96.16.53.137
@@ -7879,21 +6437,7 @@
         <v>193</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A136 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B136),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (livestreaming-fashion.vidio.com)
   type: trojan
   server: 115.164.13.243
@@ -7924,21 +6468,7 @@
         <v>195</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A137 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B137),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (livestreaming-etslive.vidio.com)
   type: trojan
   server: 122.11.168.9
@@ -7969,21 +6499,7 @@
         <v>271</v>
       </c>
       <c r="C138" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A138 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B138),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (kpi.vidio.com)
   type: trojan
   server: 142.250.150.121
@@ -8014,21 +6530,7 @@
         <v>272</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A139 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B139),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (inside.vidio.com)
   type: trojan
   server: 142.250.181.243
@@ -8059,21 +6561,7 @@
         <v>199</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A140 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B140),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (app.vidio.com)
   type: trojan
   server: 151.101.65.195
@@ -8104,21 +6592,7 @@
         <v>203</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A141 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B141),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (nontontv.vidio.com)
   type: trojan
   server: 172.67.5.14
@@ -8149,21 +6623,7 @@
         <v>206</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A142 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B142),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (hj9795.m.int-www.about.vidio.com)
   type: trojan
   server: 192.0.78.158
@@ -8194,21 +6654,7 @@
         <v>206</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A143 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B143),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (www.about.vidio.com)
   type: trojan
   server: 192.0.78.158
@@ -8239,21 +6685,7 @@
         <v>206</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A144 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B144),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (confluence.2016.winey-m.ppmail1.infinity-create-jpww.about.vidio.com)
   type: trojan
   server: 192.0.78.158
@@ -8284,21 +6716,7 @@
         <v>206</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A145 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B145),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (about.vidio.com)
   type: trojan
   server: 192.0.78.158
@@ -8329,21 +6747,7 @@
         <v>206</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A146 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B146),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (edirww.about.vidio.com)
   type: trojan
   server: 192.0.78.158
@@ -8374,21 +6778,7 @@
         <v>206</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A147 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B147),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (toronto.pocoapocoom.sdsaymentww.about.vidio.com)
   type: trojan
   server: 192.0.78.158
@@ -8419,21 +6809,7 @@
         <v>213</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A148 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B148),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (marketwwwww.about.vidio.com)
   type: trojan
   server: 192.0.78.224
@@ -8464,21 +6840,7 @@
         <v>213</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A149 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B149),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (btestollocationww.about.vidio.com)
   type: trojan
   server: 192.0.78.224
@@ -8509,21 +6871,7 @@
         <v>213</v>
       </c>
       <c r="C150" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A150 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B150),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (prodpmyww.about.vidio.com)
   type: trojan
   server: 192.0.78.224
@@ -8554,21 +6902,7 @@
         <v>213</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A151 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B151),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (l107-vi-n15.vidio.about.vidio.com)
   type: trojan
   server: 192.0.78.224
@@ -8599,21 +6933,7 @@
         <v>218</v>
       </c>
       <c r="C152" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A152 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B152),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (audiostreamserver.vidio.com)
   type: trojan
   server: 202.158.9.230
@@ -8644,21 +6964,7 @@
         <v>273</v>
       </c>
       <c r="C153" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"- name: XL VIDIO BUG (" &amp; A153 &amp; ")",
-"  type: trojan",
-"  server: " &amp; T(B153),
-"  port: 443",
-"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
-"  skip-cert-verify: true",
-"  sni: vip-7.indoxray.top",
-"  network: ws",
-"  ws-opts:",
-"    path: /websocket-trojan",
-"    headers:",
-"      Host: vip-7.indoxray.top",
-"  udp: true"
-)</f>
+        <f t="shared" si="4"/>
         <v>- name: XL VIDIO BUG (email3.vidio.com)
   type: trojan
   server: 212.146.246.165
@@ -8700,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260602A-EED4-40CE-A66F-D0F1A6D55EA0}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9275,4 +7581,5888 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEE0AFA-52F3-4B4A-BF39-ABE725F698F5}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f t="shared" ref="C2:C10" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"    server: " &amp; T(B2),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</f>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email1.vidio.com)
+    server: img.email1.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D2" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f t="shared" ref="H2:H10" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; F2 &amp; ")",
+"    server: " &amp; T(G2),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</f>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.17.159.243)
+    server: 104.17.159.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I2" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email2.vidio.com)
+    server: img.email2.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D3" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.17.159.243)
+    server: 104.17.159.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I3" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email3.vidio.com)
+    server: img.email3.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.17.156.243)
+    server: 104.17.156.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.int.vidio.com)
+    server: quiz.int.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.22.5.240)
+    server: 104.22.5.240
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I5" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.staging.vidio.com)
+    server: quiz.staging.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.22.4.240)
+    server: 104.22.4.240
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I6" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.int.vidio.com)
+    server: quiz.int.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.20.9.155)
+    server: 104.20.9.155
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I7" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.vidio.com )
+    server: quiz.vidio.com 
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (104.22.4.240)
+    server: 104.22.4.240
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I8" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (nontontv.vidio.com)
+    server: nontontv.vidio.com
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (172.67.5.14)
+    server: 172.67.5.14
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I9" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (support.vidio.com )
+    server: support.vidio.com 
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D10" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (172.66.0.145)
+    server: 172.66.0.145
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="I10" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E584B-0CFA-47F0-AB27-653F67B0DEAF}">
+  <dimension ref="A1:I154"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1"/>
+    <col min="10" max="16384" width="19" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C65" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"    server: " &amp; T(B2),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</f>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email3.vidio.com)
+    server: 104.17.156.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email2.vidio.com)
+    server: 104.17.156.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email1.vidio.com)
+    server: 104.17.157.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.staging.vidio.com)
+    server: 104.20.9.155
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.int.vidio.com)
+    server: 104.22.5.240
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (support.vidio.com)
+    server: 172.66.0.145
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.vidio.com)
+    server: 172.67.5.14
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (r.email2.vidio.com)
+    server: 1.179.112.197
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (r.email1.vidio.com)
+    server: 1.179.112.195
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (r.email3.vidio.com)
+    server: 1.179.120.3
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tv.alpha.vidio.com)
+    server: 2.18.121.18
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (www-dsa.staging.vidio.com)
+    server: 2.18.121.19
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tv.staging.vidio.com)
+    server: 2.18.121.19
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (stickers.vidio.com)
+    server: 2.18.188.68
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (m.dev.vidio.com)
+    server: 10.252.38.18
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (api.dev.vidio.com)
+    server: 10.252.38.18
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (dev.vidio.com)
+    server: 10.252.38.18
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (www.dev.vidio.com)
+    server: 10.252.38.18
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (app-log-analyzer-api.staging.vidio.com)
+    server: 10.252.88.130
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (api.vidio.com)
+    server: 23.50.131.22
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.staging.vidio.com)
+    server: 23.55.236.67
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.vidio.com)
+    server: 23.55.236.77
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (www.vidio.com)
+    server: 23.216.77.76
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa-akamai.staging.vidio.com)
+    server: 34.8.8.6
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (license.staging.vidio.com)
+    server: 34.36.103.2
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (link.promo.vidio.com)
+    server: 34.36.107.183
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ongi9angbeef5iw8-tv-dsa.vidio.com)
+    server: 34.36.193.7
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (vidio-media-interopt.int.vidio.com)
+    server: 34.36.229.42
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (next.staging.vidio.com)
+    server: 34.36.255.56
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (iso.vidio.com)
+    server: 34.49.22.44
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-subtitle-generator-api.staging.vidio.com)
+    server: 34.49.62.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (next-akamai.staging.vidio.com)
+    server: 34.49.98.65
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-dashboard.staging.vidio.com)
+    server: 34.49.106.218
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (iso.staging.vidio.com)
+    server: 34.49.200.223
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (indosat.vidio.com)
+    server: 34.87.37.125
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (media.origin.dev.vidio.com)
+    server: 34.95.72.198
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (cdn-a.origin.dev.vidio.com)
+    server: 34.95.72.198
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (static-quiz.origin.int.vidio.com)
+    server: 34.95.85.215
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (dashboard-quiz.int.vidio.com)
+    server: 34.95.93.223
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (demo-etslive.int.vidio.com)
+    server: 34.95.101.136
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (airflow.vidio.com)
+    server: 34.95.108.145
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (static-origin.dev.vidio.com)
+    server: 34.96.79.191
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hydra.staging.vidio.com)
+    server: 34.96.108.148
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (static03.staging.vidio.com)
+    server: 34.98.97.95
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (dboreja4fu.int.vidio.com)
+    server: 34.98.125.177
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (aequ1kie7b.vidio.com)
+    server: 34.102.158.190
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tv-gke.staging.vidio.com)
+    server: 34.102.199.9
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (lasjk21bda21-tv-dsa.staging.vidio.com)
+    server: 34.102.199.9
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (thumbor-gke.dev.vidio.com)
+    server: 34.102.200.171
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (peehain1ee.vidio.com)
+    server: 34.107.135.0
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ckp66utx.vidio.com)
+    server: 34.107.146.29
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (api-ns.int.vidio.com)
+    server: 34.107.179.150
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tst-aqcdqr1234.staging.vidio.com)
+    server: 34.107.198.29
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gmvpwepkj3.int.vidio.com)
+    server: 34.107.223.52
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (license.vidio.com)
+    server: 34.110.165.83
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (staging-plenty.vidio.com)
+    server: 34.110.192.133
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (api-ns.vidio.com)
+    server: 34.111.60.67
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (blog.staging.vidio.com)
+    server: 34.111.113.121
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (plenty.vidio.com)
+    server: 34.111.228.151
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (blog.vidio.com)
+    server: 34.111.253.69
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (w3hh46zt.staging.vidio.com)
+    server: 34.117.25.214
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (etslive-server.vidio.com)
+    server: 34.117.26.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hermes.staging.vidio.com)
+    server: 34.117.150.41
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (jjndi0k9m2.int.vidio.com)
+    server: 34.117.162.195
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" ref="C66:C129" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; A66 &amp; ")",
+"    server: " &amp; T(B66),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</f>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (telkomsel.vidio.com)
+    server: 34.117.180.47
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (thumbor-gke.staging.vidio.com)
+    server: 34.117.204.147
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (8hjrjnvoc3.vidio.com)
+    server: 34.117.205.16
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ovm.staging.vidio.com)
+    server: 34.117.233.20
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hermes.vidio.com)
+    server: 34.117.241.252
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (scm-iso.vidio.com)
+    server: 34.120.17.79
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (live.vidio.com)
+    server: 34.120.25.176
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (chat.vidio.com)
+    server: 34.120.25.176
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (indosat.staging.vidio.com)
+    server: 34.120.27.3
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (telkomsel.staging.vidio.com)
+    server: 34.120.27.3
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (posthog-staging.vidio.com)
+    server: 34.120.57.123
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tmbubjryhvewc-origin-quiz-staging.vidio.com)
+    server: 34.120.74.32
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D77" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (wp.staging.vidio.com)
+    server: 34.120.178.87
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.canary.prod.vidio.com)
+    server: 34.120.198.254
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (lite.vidio.com)
+    server: 34.120.218.177
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (dsa-web-iedu4coavee0poh1.vidio.com)
+    server: 34.120.218.177
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D81" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (chatbot-api.staging.vidio.com)
+    server: 34.128.140.145
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D82" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (scm-iso.staging.vidio.com)
+    server: 34.128.160.94
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (next.vidio.com)
+    server: 34.149.73.14
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (etslive-server.staging.vidio.com)
+    server: 34.149.114.137
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D85" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (c.vidio.com)
+    server: 34.149.115.28
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D86" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (whisper.staging.vidio.com)
+    server: 34.149.162.177
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hermes-cms.staging.vidio.com)
+    server: 34.149.171.88
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa-akamai.vidio.com)
+    server: 34.149.178.46
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (chatbot-api.vidio.com)
+    server: 34.149.213.76
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D90" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (wp.vidio.com)
+    server: 34.160.62.245
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D91" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (whisper.vidio.com)
+    server: 34.160.82.127
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (design.vidio.com)
+    server: 34.160.116.89
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-dashboard.vidio.com)
+    server: 34.160.129.207
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (chatbot.vidio.com)
+    server: 34.160.245.6
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (jifoer83jfei03.vidio.com)
+    server: 35.186.224.174
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (vidio-web-prod-media-001-lb.vidio.com)
+    server: 35.186.228.30
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (live.staging.vidio.com)
+    server: 35.186.230.123
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (thumbor-gke.prod.vidio.com)
+    server: 35.186.232.49
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (airflow.int.vidio.com)
+    server: 35.190.6.114
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (psug4xogrt.int.vidio.com)
+    server: 35.190.23.193
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.prod.vidio.com)
+    server: 35.190.31.252
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (lite.staging.vidio.com)
+    server: 35.190.83.167
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (test.int.vidio.com)
+    server: 35.190.83.167
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (api.staging.vidio.com)
+    server: 35.190.83.167
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (m.staging.vidio.com)
+    server: 35.190.83.167
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (staging.vidio.com)
+    server: 35.190.83.167
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (www.staging.vidio.com)
+    server: 35.190.83.167
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ocs-inventory.vidio.com)
+    server: 35.190.91.99
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (contract-testing.staging.vidio.com)
+    server: 35.201.87.32
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hoppscotch.staging.vidio.com)
+    server: 35.201.87.32
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (api-docs.vidio.com)
+    server: 35.201.87.32
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (llhls.staging.vidio.com)
+    server: 35.201.93.59
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hgktpzzg3r0e.vidio.com)
+    server: 35.227.198.227
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (etslive-app.vidio.com)
+    server: 35.227.202.147
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (careers.vidio.com)
+    server: 35.241.0.250
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (iap.api.staging.vidio.com)
+    server: 35.241.18.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (m.int.vidio.com)
+    server: 35.241.18.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D118" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (m.iap.staging.vidio.com)
+    server: 35.241.18.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (www.iap.staging.vidio.com)
+    server: 35.241.18.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (int.vidio.com)
+    server: 35.241.18.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (iap.staging.vidio.com)
+    server: 35.241.18.33
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (kmm.docs.vidio.com)
+    server: 35.241.56.225
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-subtitle-generator-api.vidio.com)
+    server: 35.244.131.47
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (cxvpemlvbgo-origin-quiz-dsa.int.vidio.com)
+    server: 35.244.147.166
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (static02.staging.vidio.com)
+    server: 35.244.184.31
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (yz3nq6kn0m.int.vidio.com)
+    server: 35.244.184.31
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tee3ahl2ch.vidio.com)
+    server: 35.244.220.18
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (int.live.vidio.com)
+    server: 35.244.250.135
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" ref="C130:C153" si="2">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"  - name: XL VIDIO BUG (" &amp; A130 &amp; ")",
+"    server: " &amp; T(B130),
+"    port: 80",
+"    type: vmess",
+"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"    alterId: 0",
+"    cipher: auto",
+"    tls: false",
+"    skip-cert-verify: true",
+"    servername: vip-8.indoxray.top",
+"    network: ws",
+"    ws-opts:",
+"      path: /websocket-vmess",
+"      headers:",
+"        Host: vip-8.indoxray.top",
+"    udp: true"
+)</f>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (careers.staging.vidio.com)
+    server: 52.223.53.203
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (livestreaming-swiftserve-etslive.vidio.com)
+    server: 58.27.5.110
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (email1.vidio.com)
+    server: 77.32.151.177
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (email2.vidio.com)
+    server: 77.32.151.201
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D133" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (m.vidio.com)
+    server: 88.221.132.209
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (tv.vidio.com)
+    server: 96.16.53.137
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (livestreaming-fashion.vidio.com)
+    server: 115.164.13.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (livestreaming-etslive.vidio.com)
+    server: 122.11.168.9
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (kpi.vidio.com)
+    server: 142.250.150.121
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (inside.vidio.com)
+    server: 142.250.181.243
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D139" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (app.vidio.com)
+    server: 151.101.65.195
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (nontontv.vidio.com)
+    server: 172.67.5.14
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (hj9795.m.int-www.about.vidio.com)
+    server: 192.0.78.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (www.about.vidio.com)
+    server: 192.0.78.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (confluence.2016.winey-m.ppmail1.infinity-create-jpww.about.vidio.com)
+    server: 192.0.78.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (about.vidio.com)
+    server: 192.0.78.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (edirww.about.vidio.com)
+    server: 192.0.78.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D146" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (toronto.pocoapocoom.sdsaymentww.about.vidio.com)
+    server: 192.0.78.158
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (marketwwwww.about.vidio.com)
+    server: 192.0.78.224
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D148" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (btestollocationww.about.vidio.com)
+    server: 192.0.78.224
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (prodpmyww.about.vidio.com)
+    server: 192.0.78.224
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (l107-vi-n15.vidio.about.vidio.com)
+    server: 192.0.78.224
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (audiostreamserver.vidio.com)
+    server: 202.158.9.230
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D152" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  - name: XL VIDIO BUG (email3.vidio.com)
+    server: 212.146.246.165
+    port: 80
+    type: vmess
+    uuid: c9034c84-5623-432d-bd53-2715a298f093
+    alterId: 0
+    cipher: auto
+    tls: false
+    skip-cert-verify: true
+    servername: vip-8.indoxray.top
+    network: ws
+    ws-opts:
+      path: /websocket-vmess
+      headers:
+        Host: vip-8.indoxray.top
+    udp: true</v>
+      </c>
+      <c r="D153" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/FORMAT AKUN BUG.xlsx
+++ b/FORMAT AKUN BUG.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhgi\OneDrive\Documents\[6] Config\AKUN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCCAFA-23D4-4F14-9C4F-0E88019C7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85147BF1-EC61-4BCD-8F80-98037BC2EB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="661" activeTab="2" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
   </bookViews>
   <sheets>
-    <sheet name="ALLBUG" sheetId="1" r:id="rId1"/>
-    <sheet name="TROJAN" sheetId="2" r:id="rId2"/>
-    <sheet name="VMESS" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="ALLBUG VIDIO" sheetId="1" r:id="rId1"/>
+    <sheet name="TROJAN VIDIO" sheetId="2" r:id="rId2"/>
+    <sheet name="VMESS VIDIO" sheetId="3" r:id="rId3"/>
+    <sheet name="ALLBUG XUTS" sheetId="4" r:id="rId4"/>
+    <sheet name="TROJAN XUTS" sheetId="5" r:id="rId5"/>
+    <sheet name="VMESS XUTS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="302">
   <si>
     <t>r.email1.vidio.com</t>
   </si>
@@ -879,13 +881,79 @@
   </si>
   <si>
     <t>104.22.4.240</t>
+  </si>
+  <si>
+    <t>ava.game.naver.com</t>
+  </si>
+  <si>
+    <t>investor.fb.com</t>
+  </si>
+  <si>
+    <t>WS ava.game.naver.com</t>
+  </si>
+  <si>
+    <t>WS investor.fb.com</t>
+  </si>
+  <si>
+    <t>WC ava.game.naver.com</t>
+  </si>
+  <si>
+    <t>WC investor.fb.com</t>
+  </si>
+  <si>
+    <t>df.game.naver.com</t>
+  </si>
+  <si>
+    <t>WS df.game.naver.com</t>
+  </si>
+  <si>
+    <t>SNI live-upload.instagram.com</t>
+  </si>
+  <si>
+    <t>SNI  graph.instagram.com</t>
+  </si>
+  <si>
+    <t>SNI  z-p15.www.instagram.com</t>
+  </si>
+  <si>
+    <t>SNI  graph.facebook.com</t>
+  </si>
+  <si>
+    <t>SNI  opensource.fb.com</t>
+  </si>
+  <si>
+    <t>SNI  status.fb.com</t>
+  </si>
+  <si>
+    <t>live-upload.instagram.com</t>
+  </si>
+  <si>
+    <t>graph.instagram.com</t>
+  </si>
+  <si>
+    <t>z-p15.www.instagram.com</t>
+  </si>
+  <si>
+    <t>graph.facebook.com</t>
+  </si>
+  <si>
+    <t>opensource.fb.com</t>
+  </si>
+  <si>
+    <t>status.fb.com</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>SNI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,8 +983,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +1016,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -1011,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1096,167 +1179,57 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
-          <xfpb:DXFComplement i="0"/>
-        </ext>
-      </extLst>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1299,6 +1272,42 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1337,13 +1346,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </right>
@@ -1370,6 +1372,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1726,15 +1735,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}" name="Table13" displayName="Table13" ref="A1:D153" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}" name="Table13" displayName="Table13" ref="A1:D153" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:D153" xr:uid="{DB6F205C-57F0-40DF-BFB1-6FB22D2402D4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
     <sortCondition descending="1" ref="D1:D153"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE15E59B-281A-4A25-9A81-7524375CF090}" name="SUB DOMAIN X" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{36EC843D-8E5B-4B48-8AEB-FD570676056D}" name="HOST X" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{554A2BE2-9691-457B-8875-304756921160}" name="FORMAT" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{AE15E59B-281A-4A25-9A81-7524375CF090}" name="SUB DOMAIN X" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{36EC843D-8E5B-4B48-8AEB-FD570676056D}" name="HOST X" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{554A2BE2-9691-457B-8875-304756921160}" name="FORMAT" dataDxfId="17">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "  type: trojan",
@@ -1751,19 +1760,19 @@
 "  udp: true"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{358BB907-0FC0-4665-AA0C-2C4F2C195190}" name="STATUS" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{358BB907-0FC0-4665-AA0C-2C4F2C195190}" name="STATUS" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:D10" xr:uid="{5CF09AF4-439A-4802-8C81-769525C40EC2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{849FBBC5-66D6-429F-B0D4-E180D61C0509}" name="SUB DOMAIN X" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{103867F1-2938-46CA-976E-C70D20BE405C}" name="HOST X" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{E2D76F45-9A42-4146-B049-C234D70F47A0}" name="FORMAT" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{849FBBC5-66D6-429F-B0D4-E180D61C0509}" name="SUB DOMAIN X" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{103867F1-2938-46CA-976E-C70D20BE405C}" name="HOST X" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E2D76F45-9A42-4146-B049-C234D70F47A0}" name="FORMAT" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "  type: trojan",
@@ -1780,19 +1789,19 @@
 "  udp: true"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DF9DD8BE-0C1D-4B4E-AA7E-374C34C84DF2}" name="STATUS" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DF9DD8BE-0C1D-4B4E-AA7E-374C34C84DF2}" name="STATUS" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09F7A86B-B4AD-40E4-8342-FFAA24BEEA68}" name="Table14" displayName="Table14" ref="A1:D10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09F7A86B-B4AD-40E4-8342-FFAA24BEEA68}" name="Table14" displayName="Table14" ref="A1:D10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D10" xr:uid="{09F7A86B-B4AD-40E4-8342-FFAA24BEEA68}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7FABE973-C906-4310-A88F-F6B9893A27C5}" name="SUB DOMAIN X" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BC5FDF9-D244-4C68-A86E-7E1349E362A2}" name="HOST X" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2567FAFF-1E27-464C-BA77-A13021EF4E5A}" name="FORMAT" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{7FABE973-C906-4310-A88F-F6B9893A27C5}" name="SUB DOMAIN X" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6BC5FDF9-D244-4C68-A86E-7E1349E362A2}" name="HOST X" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2567FAFF-1E27-464C-BA77-A13021EF4E5A}" name="FORMAT" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
 "    server: " &amp; T(B2),
@@ -1812,42 +1821,7 @@
 "    udp: true"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C84FBA53-173F-47CA-A8A1-952AFE883501}" name="STATUS" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50B5944C-7E91-4272-9950-2810987ADF78}" name="Table134" displayName="Table134" ref="A1:D153" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D153" xr:uid="{50B5944C-7E91-4272-9950-2810987ADF78}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
-    <sortCondition descending="1" ref="D1:D153"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB42EB44-EC62-4950-A1CA-2E7DB5DC4430}" name="SUB DOMAIN X" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0D6105A9-4337-4537-A812-493FB98DBDDC}" name="HOST X" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7A156327-DBAE-43C9-B16F-3352D8C62BEE}" name="FORMAT" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
-"    server: " &amp; T(B2),
-"    port: 80",
-"    type: vmess",
-"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
-"    alterId: 0",
-"    cipher: auto",
-"    tls: false",
-"    skip-cert-verify: true",
-"    servername: vip-8.indoxray.top",
-"    network: ws",
-"    ws-opts:",
-"      path: /websocket-vmess",
-"      headers:",
-"        Host: vip-8.indoxray.top",
-"    udp: true"
-)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{756C6709-A132-4B2C-B360-CB2EA8311EEA}" name="STATUS" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C84FBA53-173F-47CA-A8A1-952AFE883501}" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2172,16 +2146,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC9CBF1-1B5E-438E-80D4-40D297E130F8}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1"/>
     <col min="10" max="16384" width="19" style="1"/>
   </cols>
@@ -2204,7 +2178,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>183</v>
       </c>
@@ -2250,7 +2224,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
@@ -2281,7 +2255,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
@@ -2312,7 +2286,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>188</v>
       </c>
@@ -2343,7 +2317,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>190</v>
       </c>
@@ -2374,7 +2348,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -2405,7 +2379,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
@@ -2436,7 +2410,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2441,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2472,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2529,7 +2503,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2560,7 +2534,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +2565,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2596,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2627,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2658,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2689,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2720,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2777,7 +2751,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2782,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2839,7 +2813,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2870,7 +2844,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2901,7 +2875,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2906,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2963,7 +2937,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +2968,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +2999,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3056,7 +3030,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -3087,7 +3061,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3118,7 +3092,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3149,7 +3123,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3180,7 +3154,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -3211,7 +3185,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -3256,7 +3230,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3287,7 +3261,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -3318,7 +3292,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -3349,7 +3323,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -3380,7 +3354,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -3411,7 +3385,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -3442,7 +3416,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -3473,7 +3447,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3504,7 +3478,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3535,7 +3509,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -3566,7 +3540,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
@@ -3597,7 +3571,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -3628,7 +3602,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
@@ -3659,7 +3633,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -3690,7 +3664,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>70</v>
       </c>
@@ -3721,7 +3695,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -3752,7 +3726,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -3783,7 +3757,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -3814,7 +3788,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -3845,7 +3819,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3876,7 +3850,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -3907,7 +3881,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -3938,7 +3912,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -3969,7 +3943,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -4000,7 +3974,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -4031,7 +4005,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -4062,7 +4036,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -4093,7 +4067,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -4124,7 +4098,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -4155,7 +4129,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
@@ -4186,7 +4160,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -4217,7 +4191,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -4262,7 +4236,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -4293,7 +4267,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>92</v>
       </c>
@@ -4324,7 +4298,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>93</v>
       </c>
@@ -4355,7 +4329,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -4386,7 +4360,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4417,7 +4391,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -4448,7 +4422,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
@@ -4479,7 +4453,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -4510,7 +4484,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
@@ -4541,7 +4515,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
@@ -4572,7 +4546,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
@@ -4603,7 +4577,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>107</v>
       </c>
@@ -4634,7 +4608,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
@@ -4665,7 +4639,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
@@ -4696,7 +4670,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>110</v>
       </c>
@@ -4727,7 +4701,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>111</v>
       </c>
@@ -4758,7 +4732,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>112</v>
       </c>
@@ -4789,7 +4763,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>113</v>
       </c>
@@ -4820,7 +4794,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>115</v>
       </c>
@@ -4851,7 +4825,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>116</v>
       </c>
@@ -4882,7 +4856,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>117</v>
       </c>
@@ -4913,7 +4887,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>118</v>
       </c>
@@ -4944,7 +4918,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
@@ -4975,7 +4949,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
@@ -5006,7 +4980,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>121</v>
       </c>
@@ -5037,7 +5011,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>123</v>
       </c>
@@ -5068,7 +5042,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
@@ -5099,7 +5073,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -5130,7 +5104,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -5161,7 +5135,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>128</v>
       </c>
@@ -5192,7 +5166,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
@@ -5223,7 +5197,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>130</v>
       </c>
@@ -5268,7 +5242,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5299,7 +5273,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>132</v>
       </c>
@@ -5330,7 +5304,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
@@ -5361,7 +5335,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>136</v>
       </c>
@@ -5392,7 +5366,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>138</v>
       </c>
@@ -5423,7 +5397,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>140</v>
       </c>
@@ -5454,7 +5428,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>141</v>
       </c>
@@ -5485,7 +5459,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>142</v>
       </c>
@@ -5516,7 +5490,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>143</v>
       </c>
@@ -5547,7 +5521,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>144</v>
       </c>
@@ -5578,7 +5552,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>145</v>
       </c>
@@ -5609,7 +5583,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>147</v>
       </c>
@@ -5640,7 +5614,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>149</v>
       </c>
@@ -5671,7 +5645,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>150</v>
       </c>
@@ -5702,7 +5676,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>151</v>
       </c>
@@ -5733,7 +5707,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>153</v>
       </c>
@@ -5764,7 +5738,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>154</v>
       </c>
@@ -5795,7 +5769,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>155</v>
       </c>
@@ -5826,7 +5800,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>157</v>
       </c>
@@ -5857,7 +5831,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>159</v>
       </c>
@@ -5888,7 +5862,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>160</v>
       </c>
@@ -5919,7 +5893,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -5950,7 +5924,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>162</v>
       </c>
@@ -5981,7 +5955,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>163</v>
       </c>
@@ -6012,7 +5986,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>164</v>
       </c>
@@ -6043,7 +6017,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>166</v>
       </c>
@@ -6074,7 +6048,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>167</v>
       </c>
@@ -6105,7 +6079,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>168</v>
       </c>
@@ -6136,7 +6110,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>169</v>
       </c>
@@ -6167,7 +6141,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>170</v>
       </c>
@@ -6198,7 +6172,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>171</v>
       </c>
@@ -6229,7 +6203,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -6237,7 +6211,7 @@
         <v>173</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f t="shared" ref="C130:C161" si="4">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C130:C153" si="4">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A130 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B130),
@@ -6274,7 +6248,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -6305,7 +6279,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -6336,7 +6310,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -6367,7 +6341,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>180</v>
       </c>
@@ -6398,7 +6372,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>181</v>
       </c>
@@ -6429,7 +6403,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>192</v>
       </c>
@@ -6460,7 +6434,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -6491,7 +6465,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>196</v>
       </c>
@@ -6522,7 +6496,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>197</v>
       </c>
@@ -6553,7 +6527,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>198</v>
       </c>
@@ -6584,7 +6558,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>204</v>
       </c>
@@ -6615,7 +6589,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>205</v>
       </c>
@@ -6646,7 +6620,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>207</v>
       </c>
@@ -6677,7 +6651,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>208</v>
       </c>
@@ -6708,7 +6682,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>209</v>
       </c>
@@ -6739,7 +6713,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>210</v>
       </c>
@@ -6770,7 +6744,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>211</v>
       </c>
@@ -6801,7 +6775,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>212</v>
       </c>
@@ -6832,7 +6806,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>214</v>
       </c>
@@ -6863,7 +6837,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>215</v>
       </c>
@@ -6894,7 +6868,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>216</v>
       </c>
@@ -6925,7 +6899,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>217</v>
       </c>
@@ -6956,7 +6930,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>219</v>
       </c>
@@ -6987,7 +6961,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -7007,7 +6981,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:XFD1048576"/>
+      <selection activeCell="K2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7587,11 +7561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEE0AFA-52F3-4B4A-BF39-ABE725F698F5}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -7605,7 +7579,7 @@
     <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>220</v>
       </c>
@@ -8200,31 +8174,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E584B-0CFA-47F0-AB27-653F67B0DEAF}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C153"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1"/>
-    <col min="10" max="16384" width="19" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1"/>
+    <col min="10" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>275</v>
       </c>
       <c r="F1" s="1"/>
@@ -8233,49 +8207,43 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C65" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"  - name: XL VIDIO BUG (" &amp; A2 &amp; ")",
-"    server: " &amp; T(B2),
-"    port: 80",
-"    type: vmess",
-"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
-"    alterId: 0",
-"    cipher: auto",
-"    tls: false",
-"    skip-cert-verify: true",
-"    servername: vip-8.indoxray.top",
-"    network: ws",
-"    ws-opts:",
-"      path: /websocket-vmess",
-"      headers:",
-"        Host: vip-8.indoxray.top",
-"    udp: true"
+      <c r="A2" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="24" t="str">
+        <f t="shared" ref="C2:C14" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A2 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B2),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
 )</f>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email3.vidio.com)
-    server: 104.17.156.243
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D2" s="3" t="b">
+        <v>- name: XL VIDIO BUG (WC ava.game.naver.com)
+  type: trojan
+  server: ava.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D2" s="25" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
@@ -8284,33 +8252,30 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="2" t="str">
+    <row r="3" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email2.vidio.com)
-    server: 104.17.156.243
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D3" s="3" t="b">
+        <v>- name: XL VIDIO BUG (WC investor.fb.com)
+  type: trojan
+  server: investor.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
@@ -8318,33 +8283,30 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="2" t="str">
+    <row r="4" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (img.email1.vidio.com)
-    server: 104.17.157.243
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D4" s="3" t="b">
+        <v>- name: XL VIDIO BUG (WS ava.game.naver.com)
+  type: trojan
+  server: ava.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D4" s="25" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
@@ -8352,33 +8314,30 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="2" t="str">
+    <row r="5" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.staging.vidio.com)
-    server: 104.20.9.155
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D5" s="3" t="b">
+        <v>- name: XL VIDIO BUG (WS df.game.naver.com)
+  type: trojan
+  server: df.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D5" s="29" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
@@ -8386,33 +8345,30 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="2" t="str">
+    <row r="6" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.int.vidio.com)
-    server: 104.22.5.240
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D6" s="3" t="b">
+        <v>- name: XL VIDIO BUG (WS investor.fb.com)
+  type: trojan
+  server: investor.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D6" s="25" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
@@ -8420,33 +8376,30 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="2" t="str">
+    <row r="7" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (support.vidio.com)
-    server: 172.66.0.145
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D7" s="3" t="b">
+        <v>- name: XL VIDIO BUG (SNI live-upload.instagram.com)
+  type: trojan
+  server: live-upload.instagram.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D7" s="29" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
@@ -8454,33 +8407,30 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="2" t="str">
+    <row r="8" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (quiz.vidio.com)
-    server: 172.67.5.14
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D8" s="3" t="b">
+        <v>- name: XL VIDIO BUG (SNI  graph.instagram.com)
+  type: trojan
+  server: graph.instagram.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D8" s="25" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="1"/>
@@ -8488,4971 +8438,1162 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (SNI  z-p15.www.instagram.com)
+  type: trojan
+  server: z-p15.www.instagram.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D9" s="29" t="b">
         <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (r.email2.vidio.com)
-    server: 1.179.112.197
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="2" t="str">
+    <row r="10" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (r.email1.vidio.com)
-    server: 1.179.112.195
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
+        <v>- name: XL VIDIO BUG (SNI  graph.facebook.com)
+  type: trojan
+  server: graph.facebook.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D10" s="25" t="b">
+        <v>1</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="2" t="str">
+    <row r="11" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (r.email3.vidio.com)
-    server: 1.179.120.3
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
+        <v>- name: XL VIDIO BUG (SNI  opensource.fb.com)
+  type: trojan
+  server: opensource.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D11" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="str">
+    <row r="12" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tv.alpha.vidio.com)
-    server: 2.18.121.18
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
+        <v>- name: XL VIDIO BUG (SNI  status.fb.com)
+  type: trojan
+  server: status.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D12" s="25" t="b">
+        <v>1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (www-dsa.staging.vidio.com)
-    server: 2.18.121.19
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D13" s="3" t="b">
-        <v>0</v>
+        <v>- name: XL VIDIO BUG ()
+  type: trojan
+  server: 2.18.121.19
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D13" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:9" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tv.staging.vidio.com)
-    server: 2.18.121.19
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D14" s="3" t="b">
-        <v>0</v>
+        <v>- name: XL VIDIO BUG ()
+  type: trojan
+  server: 2.18.121.19
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D14" s="25" t="b">
+        <v>1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (stickers.vidio.com)
-    server: 2.18.188.68
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D15" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D15" s="21"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (m.dev.vidio.com)
-    server: 10.252.38.18
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D16" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D16" s="21"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (api.dev.vidio.com)
-    server: 10.252.38.18
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D17" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="17" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D17" s="21"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (dev.vidio.com)
-    server: 10.252.38.18
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D18" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="18" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D18" s="21"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (www.dev.vidio.com)
-    server: 10.252.38.18
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D19" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="19" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D19" s="21"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (app-log-analyzer-api.staging.vidio.com)
-    server: 10.252.88.130
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D20" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="20" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D20" s="21"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (api.vidio.com)
-    server: 23.50.131.22
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D21" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="21" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D21" s="21"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.staging.vidio.com)
-    server: 23.55.236.67
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D22" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="22" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D22" s="21"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.vidio.com)
-    server: 23.55.236.77
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D23" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="23" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D23" s="21"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (www.vidio.com)
-    server: 23.216.77.76
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D24" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="24" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D24" s="21"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa-akamai.staging.vidio.com)
-    server: 34.8.8.6
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D25" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="25" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D25" s="21"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (license.staging.vidio.com)
-    server: 34.36.103.2
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D26" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="26" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D26" s="21"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (link.promo.vidio.com)
-    server: 34.36.107.183
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D27" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="27" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D27" s="21"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ongi9angbeef5iw8-tv-dsa.vidio.com)
-    server: 34.36.193.7
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D28" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="28" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D28" s="21"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (vidio-media-interopt.int.vidio.com)
-    server: 34.36.229.42
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D29" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="29" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D29" s="21"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (next.staging.vidio.com)
-    server: 34.36.255.56
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D30" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="30" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D30" s="21"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (iso.vidio.com)
-    server: 34.49.22.44
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D31" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="31" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D31" s="21"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-subtitle-generator-api.staging.vidio.com)
-    server: 34.49.62.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D32" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="32" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D32" s="21"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (next-akamai.staging.vidio.com)
-    server: 34.49.98.65
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D33" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="33" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D33" s="21"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-dashboard.staging.vidio.com)
-    server: 34.49.106.218
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D34" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="34" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D34" s="21"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (iso.staging.vidio.com)
-    server: 34.49.200.223
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D35" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="35" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D35" s="21"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (indosat.vidio.com)
-    server: 34.87.37.125
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D36" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="36" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D36" s="21"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (media.origin.dev.vidio.com)
-    server: 34.95.72.198
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D37" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="37" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D37" s="21"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (cdn-a.origin.dev.vidio.com)
-    server: 34.95.72.198
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D38" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="38" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D38" s="21"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (static-quiz.origin.int.vidio.com)
-    server: 34.95.85.215
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D39" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="39" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D39" s="21"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (dashboard-quiz.int.vidio.com)
-    server: 34.95.93.223
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D40" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="40" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D40" s="21"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (demo-etslive.int.vidio.com)
-    server: 34.95.101.136
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D41" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="41" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D41" s="21"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (airflow.vidio.com)
-    server: 34.95.108.145
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D42" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="42" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D42" s="21"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (static-origin.dev.vidio.com)
-    server: 34.96.79.191
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D43" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="43" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D43" s="21"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hydra.staging.vidio.com)
-    server: 34.96.108.148
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D44" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="44" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D44" s="21"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (static03.staging.vidio.com)
-    server: 34.98.97.95
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D45" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="45" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D45" s="21"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (dboreja4fu.int.vidio.com)
-    server: 34.98.125.177
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D46" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="46" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D46" s="21"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (aequ1kie7b.vidio.com)
-    server: 34.102.158.190
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D47" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="47" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D47" s="21"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tv-gke.staging.vidio.com)
-    server: 34.102.199.9
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D48" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="48" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D48" s="21"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (lasjk21bda21-tv-dsa.staging.vidio.com)
-    server: 34.102.199.9
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D49" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="49" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D49" s="21"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (thumbor-gke.dev.vidio.com)
-    server: 34.102.200.171
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D50" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="50" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D50" s="21"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (peehain1ee.vidio.com)
-    server: 34.107.135.0
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D51" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="51" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D51" s="21"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ckp66utx.vidio.com)
-    server: 34.107.146.29
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D52" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="52" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D52" s="21"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (api-ns.int.vidio.com)
-    server: 34.107.179.150
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D53" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="53" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D53" s="21"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tst-aqcdqr1234.staging.vidio.com)
-    server: 34.107.198.29
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D54" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="54" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D54" s="21"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gmvpwepkj3.int.vidio.com)
-    server: 34.107.223.52
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D55" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="55" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D55" s="21"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (license.vidio.com)
-    server: 34.110.165.83
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D56" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="56" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D56" s="21"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (staging-plenty.vidio.com)
-    server: 34.110.192.133
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D57" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="57" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D57" s="21"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (api-ns.vidio.com)
-    server: 34.111.60.67
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D58" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="58" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D58" s="21"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (blog.staging.vidio.com)
-    server: 34.111.113.121
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D59" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="59" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D59" s="21"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (plenty.vidio.com)
-    server: 34.111.228.151
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D60" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="60" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D60" s="21"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (blog.vidio.com)
-    server: 34.111.253.69
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D61" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="61" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D61" s="21"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (w3hh46zt.staging.vidio.com)
-    server: 34.117.25.214
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D62" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="62" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D62" s="21"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (etslive-server.vidio.com)
-    server: 34.117.26.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D63" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="63" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D63" s="21"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hermes.staging.vidio.com)
-    server: 34.117.150.41
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D64" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="64" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D64" s="21"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (jjndi0k9m2.int.vidio.com)
-    server: 34.117.162.195
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D65" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="65" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D65" s="21"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" s="2" t="str">
-        <f t="shared" ref="C66:C129" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"  - name: XL VIDIO BUG (" &amp; A66 &amp; ")",
-"    server: " &amp; T(B66),
-"    port: 80",
-"    type: vmess",
-"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
-"    alterId: 0",
-"    cipher: auto",
-"    tls: false",
-"    skip-cert-verify: true",
-"    servername: vip-8.indoxray.top",
-"    network: ws",
-"    ws-opts:",
-"      path: /websocket-vmess",
-"      headers:",
-"        Host: vip-8.indoxray.top",
-"    udp: true"
-)</f>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (telkomsel.vidio.com)
-    server: 34.117.180.47
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D66" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="66" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D66" s="21"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (thumbor-gke.staging.vidio.com)
-    server: 34.117.204.147
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D67" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="67" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D67" s="21"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (8hjrjnvoc3.vidio.com)
-    server: 34.117.205.16
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D68" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="68" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D68" s="21"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ovm.staging.vidio.com)
-    server: 34.117.233.20
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D69" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="69" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D69" s="21"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hermes.vidio.com)
-    server: 34.117.241.252
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D70" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="70" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D70" s="21"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (scm-iso.vidio.com)
-    server: 34.120.17.79
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D71" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="71" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D71" s="21"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (live.vidio.com)
-    server: 34.120.25.176
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D72" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="72" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D72" s="21"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (chat.vidio.com)
-    server: 34.120.25.176
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D73" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="73" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D73" s="21"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (indosat.staging.vidio.com)
-    server: 34.120.27.3
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D74" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="74" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D74" s="21"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (telkomsel.staging.vidio.com)
-    server: 34.120.27.3
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D75" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="75" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D75" s="21"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (posthog-staging.vidio.com)
-    server: 34.120.57.123
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D76" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="76" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D76" s="21"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tmbubjryhvewc-origin-quiz-staging.vidio.com)
-    server: 34.120.74.32
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D77" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="77" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D77" s="21"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (wp.staging.vidio.com)
-    server: 34.120.178.87
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D78" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="78" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D78" s="21"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.canary.prod.vidio.com)
-    server: 34.120.198.254
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D79" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="79" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D79" s="21"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (lite.vidio.com)
-    server: 34.120.218.177
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D80" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="80" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D80" s="21"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (dsa-web-iedu4coavee0poh1.vidio.com)
-    server: 34.120.218.177
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D81" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="81" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D81" s="21"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (chatbot-api.staging.vidio.com)
-    server: 34.128.140.145
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D82" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="82" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D82" s="21"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (scm-iso.staging.vidio.com)
-    server: 34.128.160.94
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D83" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="83" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D83" s="21"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (next.vidio.com)
-    server: 34.149.73.14
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D84" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="84" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D84" s="21"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (etslive-server.staging.vidio.com)
-    server: 34.149.114.137
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D85" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="85" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D85" s="21"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (c.vidio.com)
-    server: 34.149.115.28
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D86" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="86" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D86" s="21"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (whisper.staging.vidio.com)
-    server: 34.149.162.177
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D87" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="87" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D87" s="21"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hermes-cms.staging.vidio.com)
-    server: 34.149.171.88
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D88" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="88" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D88" s="21"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa-akamai.vidio.com)
-    server: 34.149.178.46
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D89" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="89" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D89" s="21"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (chatbot-api.vidio.com)
-    server: 34.149.213.76
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D90" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="90" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D90" s="21"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (wp.vidio.com)
-    server: 34.160.62.245
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D91" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="91" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D91" s="21"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (whisper.vidio.com)
-    server: 34.160.82.127
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D92" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="92" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D92" s="21"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (design.vidio.com)
-    server: 34.160.116.89
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D93" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="93" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D93" s="21"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-dashboard.vidio.com)
-    server: 34.160.129.207
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D94" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="94" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D94" s="21"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (chatbot.vidio.com)
-    server: 34.160.245.6
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D95" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="95" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D95" s="21"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (jifoer83jfei03.vidio.com)
-    server: 35.186.224.174
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D96" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="96" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D96" s="21"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (vidio-web-prod-media-001-lb.vidio.com)
-    server: 35.186.228.30
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D97" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="97" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D97" s="21"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (live.staging.vidio.com)
-    server: 35.186.230.123
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D98" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="98" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D98" s="21"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (thumbor-gke.prod.vidio.com)
-    server: 35.186.232.49
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D99" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="99" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D99" s="21"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (airflow.int.vidio.com)
-    server: 35.190.6.114
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D100" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="100" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D100" s="21"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (psug4xogrt.int.vidio.com)
-    server: 35.190.23.193
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D101" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="101" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D101" s="21"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (gandiwa.prod.vidio.com)
-    server: 35.190.31.252
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D102" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="102" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D102" s="21"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (lite.staging.vidio.com)
-    server: 35.190.83.167
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D103" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="103" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D103" s="21"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (test.int.vidio.com)
-    server: 35.190.83.167
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D104" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="104" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D104" s="21"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (api.staging.vidio.com)
-    server: 35.190.83.167
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D105" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="105" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D105" s="21"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (m.staging.vidio.com)
-    server: 35.190.83.167
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D106" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="106" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D106" s="21"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (staging.vidio.com)
-    server: 35.190.83.167
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D107" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="107" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D107" s="21"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (www.staging.vidio.com)
-    server: 35.190.83.167
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D108" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="108" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D108" s="21"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ocs-inventory.vidio.com)
-    server: 35.190.91.99
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D109" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="109" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D109" s="21"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (contract-testing.staging.vidio.com)
-    server: 35.201.87.32
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D110" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="110" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D110" s="21"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hoppscotch.staging.vidio.com)
-    server: 35.201.87.32
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D111" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="111" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D111" s="21"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (api-docs.vidio.com)
-    server: 35.201.87.32
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D112" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="112" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D112" s="21"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (llhls.staging.vidio.com)
-    server: 35.201.93.59
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D113" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="113" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D113" s="21"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hgktpzzg3r0e.vidio.com)
-    server: 35.227.198.227
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D114" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="114" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D114" s="21"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (etslive-app.vidio.com)
-    server: 35.227.202.147
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D115" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="115" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D115" s="21"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (careers.vidio.com)
-    server: 35.241.0.250
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D116" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="116" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D116" s="21"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (iap.api.staging.vidio.com)
-    server: 35.241.18.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D117" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="117" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D117" s="21"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (m.int.vidio.com)
-    server: 35.241.18.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D118" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="118" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D118" s="21"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (m.iap.staging.vidio.com)
-    server: 35.241.18.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D119" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="119" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D119" s="21"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (www.iap.staging.vidio.com)
-    server: 35.241.18.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D120" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="120" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D120" s="21"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (int.vidio.com)
-    server: 35.241.18.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D121" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="121" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D121" s="21"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (iap.staging.vidio.com)
-    server: 35.241.18.33
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D122" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="122" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D122" s="21"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (kmm.docs.vidio.com)
-    server: 35.241.56.225
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D123" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="123" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D123" s="21"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (ets-subtitle-generator-api.vidio.com)
-    server: 35.244.131.47
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D124" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="124" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D124" s="21"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (cxvpemlvbgo-origin-quiz-dsa.int.vidio.com)
-    server: 35.244.147.166
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D125" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="125" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D125" s="21"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (static02.staging.vidio.com)
-    server: 35.244.184.31
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D126" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="126" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D126" s="21"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (yz3nq6kn0m.int.vidio.com)
-    server: 35.244.184.31
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D127" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="127" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D127" s="21"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tee3ahl2ch.vidio.com)
-    server: 35.244.220.18
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D128" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="128" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D128" s="21"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (int.live.vidio.com)
-    server: 35.244.250.135
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D129" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="129" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D129" s="21"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" s="2" t="str">
-        <f t="shared" ref="C130:C153" si="2">_xlfn.TEXTJOIN(CHAR(10), TRUE,
-"  - name: XL VIDIO BUG (" &amp; A130 &amp; ")",
-"    server: " &amp; T(B130),
-"    port: 80",
-"    type: vmess",
-"    uuid: c9034c84-5623-432d-bd53-2715a298f093",
-"    alterId: 0",
-"    cipher: auto",
-"    tls: false",
-"    skip-cert-verify: true",
-"    servername: vip-8.indoxray.top",
-"    network: ws",
-"    ws-opts:",
-"      path: /websocket-vmess",
-"      headers:",
-"        Host: vip-8.indoxray.top",
-"    udp: true"
-)</f>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (careers.staging.vidio.com)
-    server: 52.223.53.203
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D130" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="130" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D130" s="21"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (livestreaming-swiftserve-etslive.vidio.com)
-    server: 58.27.5.110
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D131" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="131" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D131" s="21"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (email1.vidio.com)
-    server: 77.32.151.177
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D132" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="132" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D132" s="21"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (email2.vidio.com)
-    server: 77.32.151.201
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D133" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="133" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D133" s="21"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (m.vidio.com)
-    server: 88.221.132.209
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D134" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="134" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D134" s="21"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (tv.vidio.com)
-    server: 96.16.53.137
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D135" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="135" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D135" s="21"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (livestreaming-fashion.vidio.com)
-    server: 115.164.13.243
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D136" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="136" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D136" s="21"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (livestreaming-etslive.vidio.com)
-    server: 122.11.168.9
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D137" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="137" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D137" s="21"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (kpi.vidio.com)
-    server: 142.250.150.121
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D138" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="138" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D138" s="21"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (inside.vidio.com)
-    server: 142.250.181.243
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D139" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="139" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D139" s="21"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (app.vidio.com)
-    server: 151.101.65.195
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D140" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="140" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D140" s="21"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C141" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (nontontv.vidio.com)
-    server: 172.67.5.14
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D141" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="141" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D141" s="21"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C142" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (hj9795.m.int-www.about.vidio.com)
-    server: 192.0.78.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D142" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="142" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D142" s="21"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C143" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (www.about.vidio.com)
-    server: 192.0.78.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D143" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="143" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D143" s="21"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (confluence.2016.winey-m.ppmail1.infinity-create-jpww.about.vidio.com)
-    server: 192.0.78.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D144" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="144" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D144" s="21"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (about.vidio.com)
-    server: 192.0.78.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D145" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="145" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D145" s="21"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (edirww.about.vidio.com)
-    server: 192.0.78.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D146" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="146" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D146" s="21"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (toronto.pocoapocoom.sdsaymentww.about.vidio.com)
-    server: 192.0.78.158
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D147" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="147" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D147" s="21"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (marketwwwww.about.vidio.com)
-    server: 192.0.78.224
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D148" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="148" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D148" s="21"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (btestollocationww.about.vidio.com)
-    server: 192.0.78.224
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D149" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="149" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D149" s="21"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C150" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (prodpmyww.about.vidio.com)
-    server: 192.0.78.224
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D150" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="150" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D150" s="21"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C151" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (l107-vi-n15.vidio.about.vidio.com)
-    server: 192.0.78.224
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D151" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="151" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D151" s="21"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (audiostreamserver.vidio.com)
-    server: 202.158.9.230
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D152" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="152" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D152" s="21"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  - name: XL VIDIO BUG (email3.vidio.com)
-    server: 212.146.246.165
-    port: 80
-    type: vmess
-    uuid: c9034c84-5623-432d-bd53-2715a298f093
-    alterId: 0
-    cipher: auto
-    tls: false
-    skip-cert-verify: true
-    servername: vip-8.indoxray.top
-    network: ws
-    ws-opts:
-      path: /websocket-vmess
-      headers:
-        Host: vip-8.indoxray.top
-    udp: true</v>
-      </c>
-      <c r="D153" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="153" spans="4:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="D153" s="21"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9" ht="11.25" x14ac:dyDescent="0.25">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -13461,8 +9602,1766 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09D5B0-624D-47CD-97AB-00A5D406E4E2}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f t="shared" ref="C4:C6" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A4 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B4),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WS ava.game.naver.com)
+  type: trojan
+  server: ava.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; F4 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(G4),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(G4) &amp; ".vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: " &amp; T(G4) &amp; ".vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WC ava.game.naver.com)
+  type: trojan
+  server: ava.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: ava.game.naver.com.vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: ava.game.naver.com.vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K4 &amp; ")",
+"  server: vip-7.indoxray.top",
+"  port: 443",
+"  type: trojan",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(L4),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI live-upload.instagram.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: live-upload.instagram.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N4" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (WS df.game.naver.com)
+  type: trojan
+  server: df.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; F5 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(G5),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(G5) &amp; ".vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: " &amp; T(G5) &amp; ".vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WC investor.fb.com)
+  type: trojan
+  server: investor.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: investor.fb.com.vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: investor.fb.com.vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" s="24" t="str">
+        <f t="shared" ref="M5:M9" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K5 &amp; ")",
+"  server: vip-7.indoxray.top",
+"  port: 443",
+"  type: trojan",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(L5),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI  graph.instagram.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: graph.instagram.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N5" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (WS investor.fb.com)
+  type: trojan
+  server: investor.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D6" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="M6" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  z-p15.www.instagram.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: z-p15.www.instagram.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N6" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f t="shared" ref="C4:C16" si="2">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A7 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B7),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WS df.game.naver.com)
+  type: trojan
+  server: df.game.naver.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  graph.facebook.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: graph.facebook.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N7" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (WS investor.fb.com)
+  type: trojan
+  server: investor.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  opensource.fb.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: opensource.fb.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N8" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (SNI live-upload.instagram.com)
+  type: trojan
+  server: live-upload.instagram.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="M9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  status.fb.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: status.fb.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N9" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (SNI  graph.instagram.com)
+  type: trojan
+  server: graph.instagram.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (SNI  z-p15.www.instagram.com)
+  type: trojan
+  server: z-p15.www.instagram.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D11" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (SNI  graph.facebook.com)
+  type: trojan
+  server: graph.facebook.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D12" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (SNI  opensource.fb.com)
+  type: trojan
+  server: opensource.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D13" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG (SNI  status.fb.com)
+  type: trojan
+  server: status.fb.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D14" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG ()
+  type: trojan
+  server: 2.18.121.19
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D15" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>- name: XL VIDIO BUG ()
+  type: trojan
+  server: 2.18.121.19
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D16" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8673D4D2-47F6-4D16-9082-9AECF1F9283C}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F4 &amp; ")",
+"  server: " &amp; T(G4),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC ava.game.naver.com)
+  server: ava.game.naver.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F4 &amp; ")",
+"  server: " &amp; T(G4),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(G4) &amp; ".vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: " &amp; T(G4) &amp; ".vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC ava.game.naver.com)
+  server: ava.game.naver.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: ava.game.naver.com.vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: ava.game.naver.com.vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K4 &amp; ")",
+"  server: vip-8.indoxray.top",
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(L4),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI live-upload.instagram.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: live-upload.instagram.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N4" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f t="shared" ref="C5:C16" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F5 &amp; ")",
+"  server: " &amp; T(G5),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC investor.fb.com)
+  server: investor.fb.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F5 &amp; ")",
+"  server: " &amp; T(G5),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(G5) &amp; ".vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: " &amp; T(G5) &amp; ".vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC investor.fb.com)
+  server: investor.fb.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: investor.fb.com.vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: investor.fb.com.vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" s="24" t="str">
+        <f t="shared" ref="M5:M9" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K5 &amp; ")",
+"  server: vip-8.indoxray.top",
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(L5),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI  graph.instagram.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: graph.instagram.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N5" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D6" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="M6" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  z-p15.www.instagram.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: z-p15.www.instagram.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N6" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  graph.facebook.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: graph.facebook.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N7" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  opensource.fb.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: opensource.fb.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N8" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="M9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>- name: XL XUTS (SNI  status.fb.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: status.fb.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N9" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D11" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D12" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D13" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D14" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D15" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL XUTS BUG ()
+  server: 
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D16" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FORMAT AKUN BUG.xlsx
+++ b/FORMAT AKUN BUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhgi\OneDrive\Documents\[6] Config\AKUN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85147BF1-EC61-4BCD-8F80-98037BC2EB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DC3FB-C942-4B7F-8833-BB788487EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="661" activeTab="2" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="746" firstSheet="1" activeTab="6" xr2:uid="{91BCE3E3-4E47-4329-85DE-EE3163D86E19}"/>
   </bookViews>
   <sheets>
     <sheet name="ALLBUG VIDIO" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="ALLBUG XUTS" sheetId="4" r:id="rId4"/>
     <sheet name="TROJAN XUTS" sheetId="5" r:id="rId5"/>
     <sheet name="VMESS XUTS" sheetId="6" r:id="rId6"/>
+    <sheet name="ISAT FUN TR" sheetId="8" r:id="rId7"/>
+    <sheet name="ISAT FUN VMESS" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="311">
   <si>
     <t>r.email1.vidio.com</t>
   </si>
@@ -947,6 +949,33 @@
   </si>
   <si>
     <t>SNI</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>investors.spotify.com</t>
+  </si>
+  <si>
+    <t>WS investors.spotify.com</t>
+  </si>
+  <si>
+    <t>SNI investors.spotify.com</t>
+  </si>
+  <si>
+    <t>WC investors.spotify.com</t>
+  </si>
+  <si>
+    <t>WS cache.netflix.com</t>
+  </si>
+  <si>
+    <t>cache.netflix.com</t>
+  </si>
+  <si>
+    <t>WC cache.netflix.com</t>
+  </si>
+  <si>
+    <t>SNI cache.netflix.com</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1248,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7561,7 +7590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEE0AFA-52F3-4B4A-BF39-ABE725F698F5}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -9609,8 +9638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09D5B0-624D-47CD-97AB-00A5D406E4E2}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9626,37 +9655,39 @@
     <col min="13" max="13" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -9696,7 +9727,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>282</v>
       </c>
@@ -9986,7 +10017,7 @@
         <v>286</v>
       </c>
       <c r="C7" s="28" t="str">
-        <f t="shared" ref="C4:C16" si="2">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+        <f t="shared" ref="C7:C16" si="2">_xlfn.TEXTJOIN(CHAR(10), TRUE,
 "- name: XL VIDIO BUG (" &amp; A7 &amp; ")",
 "  type: trojan",
 "  server: " &amp; T(B7),
@@ -10449,8 +10480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8673D4D2-47F6-4D16-9082-9AECF1F9283C}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10466,37 +10497,39 @@
     <col min="13" max="13" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -11364,4 +11397,1149 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7DB888-0F3E-4FF0-AEB1-DC6D76CB7C7C}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f t="shared" ref="C4:C16" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; A4 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(B4),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WS investors.spotify.com)
+  type: trojan
+  server: investors.spotify.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; F4 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(G4),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(G4) &amp; ".vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: " &amp; T(G4) &amp; ".vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WC investors.spotify.com)
+  type: trojan
+  server: investors.spotify.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: investors.spotify.com.vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: investors.spotify.com.vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K4 &amp; ")",
+"  server: vip-7.indoxray.top",
+"  port: 443",
+"  type: trojan",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(L4),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI investors.spotify.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: investors.spotify.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N4" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>- name: XL VIDIO BUG (WS cache.netflix.com)
+  type: trojan
+  server: cache.netflix.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL VIDIO BUG (" &amp; F5 &amp; ")",
+"  type: trojan",
+"  server: " &amp; T(G5),
+"  port: 443",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(G5) &amp; ".vip-7.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: " &amp; T(G5) &amp; ".vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL VIDIO BUG (WC cache.netflix.com)
+  type: trojan
+  server: cache.netflix.com
+  port: 443
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: cache.netflix.com.vip-7.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: cache.netflix.com.vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" s="24" t="str">
+        <f t="shared" ref="M5:M9" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K5 &amp; ")",
+"  server: vip-7.indoxray.top",
+"  port: 443",
+"  type: trojan",
+"  password: 594d1919-99cd-4002-aec3-0c07180b6c46",
+"  skip-cert-verify: true",
+"  sni: " &amp; T(L5),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-trojan",
+"    headers:",
+"      Host: vip-7.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI cache.netflix.com)
+  server: vip-7.indoxray.top
+  port: 443
+  type: trojan
+  password: 594d1919-99cd-4002-aec3-0c07180b6c46
+  skip-cert-verify: true
+  sni: cache.netflix.com
+  network: ws
+  ws-opts:
+    path: /websocket-trojan
+    headers:
+      Host: vip-7.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N5" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04734EF2-39DE-43B9-8D69-AE4D13AC5038}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F4 &amp; ")",
+"  server: " &amp; T(G4),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC investors.spotify.com)
+  server: investors.spotify.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F4 &amp; ")",
+"  server: " &amp; T(G4),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(G4) &amp; ".vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: " &amp; T(G4) &amp; ".vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC investors.spotify.com)
+  server: investors.spotify.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: investors.spotify.com.vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: investors.spotify.com.vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K4 &amp; ")",
+"  server: vip-8.indoxray.top",
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(L4),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI investors.spotify.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: investors.spotify.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N4" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f t="shared" ref="C5:C16" si="0">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F5 &amp; ")",
+"  server: " &amp; T(G5),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC cache.netflix.com)
+  server: cache.netflix.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="D5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS BUG (" &amp; F5 &amp; ")",
+"  server: " &amp; T(G5),
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(G5) &amp; ".vip-8.indoxray.top",
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: " &amp; T(G5) &amp; ".vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS BUG (WC cache.netflix.com)
+  server: cache.netflix.com
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: cache.netflix.com.vip-8.indoxray.top
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: cache.netflix.com.vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" s="24" t="str">
+        <f t="shared" ref="M5:M9" si="1">_xlfn.TEXTJOIN(CHAR(10), TRUE,
+"- name: XL XUTS (" &amp; K5 &amp; ")",
+"  server: vip-8.indoxray.top",
+"  port: 443",
+"  type: vmess",
+"  uuid: c9034c84-5623-432d-bd53-2715a298f093",
+"  alterId: 0",
+"  cipher: auto",
+"  tls: true",
+"  skip-cert-verify: true",
+"  servername: " &amp; T(L5),
+"  network: ws",
+"  ws-opts:",
+"    path: /websocket-vmess",
+"    headers:",
+"      Host: vip-8.indoxray.top",
+"  udp: true"
+)</f>
+        <v>- name: XL XUTS (SNI cache.netflix.com)
+  server: vip-8.indoxray.top
+  port: 443
+  type: vmess
+  uuid: c9034c84-5623-432d-bd53-2715a298f093
+  alterId: 0
+  cipher: auto
+  tls: true
+  skip-cert-verify: true
+  servername: cache.netflix.com
+  network: ws
+  ws-opts:
+    path: /websocket-vmess
+    headers:
+      Host: vip-8.indoxray.top
+  udp: true</v>
+      </c>
+      <c r="N5" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>